--- a/pack/TestInputs/inputFile.xlsx
+++ b/pack/TestInputs/inputFile.xlsx
@@ -5017,8 +5017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/pack/TestInputs/inputFile.xlsx
+++ b/pack/TestInputs/inputFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="4020"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="4020" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestdata" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7774" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7779" uniqueCount="1464">
   <si>
     <t>Description</t>
   </si>
@@ -4451,16 +4451,16 @@
     <t>wait for salary link</t>
   </si>
   <si>
-    <t>Priyanka</t>
-  </si>
-  <si>
-    <t>Vk</t>
-  </si>
-  <si>
     <t>TimeSheet_Approved Time Sheet</t>
   </si>
   <si>
     <t>TC_34</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Manasa</t>
   </si>
 </sst>
 </file>
@@ -5017,8 +5017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5412,10 +5412,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B35" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="C35" t="s">
         <v>30</v>
@@ -6314,11 +6314,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6580,7 +6580,7 @@
         <v>272</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -6616,7 +6616,7 @@
         <v>275</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -7522,64 +7522,64 @@
     </row>
     <row r="67" spans="1:6" ht="18.75">
       <c r="A67" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="43"/>
+    </row>
+    <row r="68" spans="1:6" ht="18.75">
+      <c r="A68" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="B68" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
         <v>462</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" s="43"/>
-    </row>
-    <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="19" t="s">
+      <c r="E68" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="43"/>
+    </row>
+    <row r="69" spans="1:6" ht="18.75">
+      <c r="A69" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="B69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F68" s="43"/>
-    </row>
-    <row r="69" spans="1:6" s="25" customFormat="1" ht="18.75">
-      <c r="A69" s="23" t="s">
-        <v>588</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>587</v>
-      </c>
-      <c r="E69" s="23" t="s">
+      <c r="E69" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6" s="25" customFormat="1" ht="18.75">
       <c r="A70" s="23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C70" s="23" t="s">
         <v>24</v>
@@ -7594,46 +7594,46 @@
     </row>
     <row r="71" spans="1:6" s="25" customFormat="1" ht="18.75">
       <c r="A71" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="43"/>
+    </row>
+    <row r="72" spans="1:6" s="25" customFormat="1" ht="18.75">
+      <c r="A72" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B72" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="43"/>
-    </row>
-    <row r="72" spans="1:6" ht="18.75">
-      <c r="A72" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E72" s="11" t="s">
+      <c r="C72" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6" ht="18.75">
       <c r="A73" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>24</v>
@@ -7648,16 +7648,16 @@
     </row>
     <row r="74" spans="1:6" ht="18.75">
       <c r="A74" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="24" t="s">
-        <v>595</v>
+      <c r="D74" t="s">
+        <v>1388</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>25</v>
@@ -7680,13 +7680,14 @@
       <c r="E75" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:6" ht="18.75">
       <c r="A76" s="11" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>24</v>
@@ -7700,50 +7701,50 @@
     </row>
     <row r="77" spans="1:6" ht="18.75">
       <c r="A77" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18.75">
+      <c r="A78" s="11" t="s">
         <v>1459</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="11" t="s">
+      <c r="B78" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="E77" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="18.75">
-      <c r="A78" s="19" t="s">
+      <c r="E78" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18.75">
+      <c r="A79" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="B79" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" t="s">
         <v>349</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="18.75">
-      <c r="A79" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" t="s">
-        <v>351</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>25</v>
@@ -7751,10 +7752,10 @@
     </row>
     <row r="80" spans="1:6" ht="18.75">
       <c r="A80" s="11" t="s">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>24</v>
@@ -7763,32 +7764,32 @@
         <v>351</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>1389</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="18.75">
       <c r="A81" s="11" t="s">
-        <v>352</v>
+        <v>42</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>25</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="18.75">
       <c r="A82" s="11" t="s">
-        <v>161</v>
+        <v>352</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>24</v>
@@ -7796,33 +7797,33 @@
       <c r="D82" t="s">
         <v>353</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>354</v>
+      <c r="E82" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18.75">
       <c r="A83" s="11" t="s">
-        <v>355</v>
+        <v>161</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>356</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>25</v>
+        <v>353</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="18.75">
       <c r="A84" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>24</v>
@@ -7831,32 +7832,32 @@
         <v>356</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>1182</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="18.75">
       <c r="A85" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>25</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="18.75">
       <c r="A86" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>24</v>
@@ -7865,32 +7866,32 @@
         <v>359</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>1390</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="18.75">
       <c r="A87" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>25</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="18.75">
       <c r="A88" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>24</v>
@@ -7898,39 +7899,39 @@
       <c r="D88" t="s">
         <v>362</v>
       </c>
-      <c r="E88" s="14" t="s">
-        <v>364</v>
+      <c r="E88" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="18.75">
       <c r="A89" s="11" t="s">
-        <v>207</v>
+        <v>363</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>365</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>25</v>
+        <v>362</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="18.75">
       <c r="A90" s="11" t="s">
-        <v>584</v>
+        <v>207</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>586</v>
+      <c r="D90" t="s">
+        <v>365</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>25</v>
@@ -7938,10 +7939,10 @@
     </row>
     <row r="91" spans="1:5" ht="18.75">
       <c r="A91" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>24</v>
@@ -7955,50 +7956,50 @@
     </row>
     <row r="92" spans="1:5" ht="18.75">
       <c r="A92" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="18.75">
+      <c r="A93" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B93" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="18.75">
-      <c r="A93" s="19" t="s">
+      <c r="C93" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="18.75">
+      <c r="A94" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="B94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s">
         <v>367</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="18.75">
-      <c r="A94" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94" t="s">
-        <v>369</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>25</v>
@@ -8006,10 +8007,10 @@
     </row>
     <row r="95" spans="1:5" ht="18.75">
       <c r="A95" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>24</v>
@@ -8018,32 +8019,32 @@
         <v>369</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>371</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="18.75">
       <c r="A96" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>25</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="18.75">
       <c r="A97" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>24</v>
@@ -8052,66 +8053,66 @@
         <v>373</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>1126</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="18.75">
       <c r="A98" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D98" s="11" t="s">
-        <v>469</v>
+      <c r="D98" t="s">
+        <v>373</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>25</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18.75">
       <c r="A99" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="11" t="s">
         <v>469</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>470</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="18.75">
       <c r="A100" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>25</v>
+        <v>470</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18.75">
       <c r="A101" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>24</v>
@@ -8120,32 +8121,32 @@
         <v>471</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>418</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18.75">
       <c r="A102" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>380</v>
+        <v>471</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>25</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18.75">
       <c r="A103" s="11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>24</v>
@@ -8153,33 +8154,33 @@
       <c r="D103" t="s">
         <v>380</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>1391</v>
+      <c r="E103" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="18.75">
       <c r="A104" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>384</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>25</v>
+        <v>380</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75">
       <c r="A105" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>24</v>
@@ -8188,32 +8189,32 @@
         <v>384</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>472</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="18.75">
       <c r="A106" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>25</v>
+        <v>472</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="18.75">
       <c r="A107" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>24</v>
@@ -8221,33 +8222,33 @@
       <c r="D107" t="s">
         <v>387</v>
       </c>
-      <c r="E107" s="14" t="s">
-        <v>389</v>
+      <c r="E107" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="18.75">
       <c r="A108" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>391</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>25</v>
+        <v>387</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="18.75">
       <c r="A109" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>24</v>
@@ -8256,32 +8257,32 @@
         <v>391</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>393</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="18.75">
       <c r="A110" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>25</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="18.75">
       <c r="A111" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>24</v>
@@ -8289,33 +8290,33 @@
       <c r="D111" t="s">
         <v>395</v>
       </c>
-      <c r="E111" s="14" t="s">
-        <v>397</v>
+      <c r="E111" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="18.75">
       <c r="A112" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>399</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>25</v>
+        <v>395</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="18.75">
       <c r="A113" s="11" t="s">
-        <v>161</v>
+        <v>398</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>24</v>
@@ -8323,33 +8324,33 @@
       <c r="D113" t="s">
         <v>399</v>
       </c>
-      <c r="E113" s="14" t="s">
-        <v>400</v>
+      <c r="E113" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="18.75">
       <c r="A114" s="11" t="s">
-        <v>401</v>
+        <v>161</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>402</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>25</v>
+        <v>399</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="18.75">
       <c r="A115" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>24</v>
@@ -8357,50 +8358,50 @@
       <c r="D115" t="s">
         <v>402</v>
       </c>
-      <c r="E115" s="14" t="s">
-        <v>404</v>
+      <c r="E115" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="18.75">
       <c r="A116" s="11" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>611</v>
+        <v>404</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="18.75">
       <c r="A117" s="11" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D117" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>25</v>
+      <c r="D117" t="s">
+        <v>405</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="18.75">
       <c r="A118" s="11" t="s">
-        <v>207</v>
+        <v>344</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>24</v>
@@ -8414,16 +8415,16 @@
     </row>
     <row r="119" spans="1:5" ht="18.75">
       <c r="A119" s="11" t="s">
-        <v>584</v>
+        <v>207</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D119" t="s">
-        <v>586</v>
+      <c r="D119" s="11" t="s">
+        <v>610</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>25</v>
@@ -8431,10 +8432,10 @@
     </row>
     <row r="120" spans="1:5" ht="18.75">
       <c r="A120" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>24</v>
@@ -8448,49 +8449,49 @@
     </row>
     <row r="121" spans="1:5" ht="18.75">
       <c r="A121" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>586</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="18.75">
+      <c r="A122" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B122" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C121" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="18.75">
-      <c r="A122" s="19" t="s">
+      <c r="C122" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="18.75">
+      <c r="A123" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="18.75">
-      <c r="A123" s="11" t="s">
-        <v>406</v>
-      </c>
       <c r="B123" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="11" t="s">
         <v>475</v>
       </c>
       <c r="E123" s="11" t="s">
@@ -8499,16 +8500,16 @@
     </row>
     <row r="124" spans="1:5" ht="18.75">
       <c r="A124" s="11" t="s">
-        <v>474</v>
+        <v>406</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D124" s="11" t="s">
-        <v>413</v>
+      <c r="D124" t="s">
+        <v>475</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>25</v>
@@ -8516,44 +8517,44 @@
     </row>
     <row r="125" spans="1:5" ht="18.75">
       <c r="A125" s="11" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>293</v>
+      <c r="E125" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="18.75">
       <c r="A126" s="11" t="s">
-        <v>122</v>
+        <v>412</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D126" t="s">
-        <v>612</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>25</v>
+        <v>413</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="18.75">
       <c r="A127" s="11" t="s">
-        <v>414</v>
+        <v>122</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>24</v>
@@ -8562,32 +8563,32 @@
         <v>612</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>415</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="18.75">
       <c r="A128" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>417</v>
+        <v>612</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>25</v>
+        <v>415</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="18.75">
       <c r="A129" s="11" t="s">
-        <v>58</v>
+        <v>416</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>24</v>
@@ -8595,33 +8596,33 @@
       <c r="D129" t="s">
         <v>417</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>418</v>
+      <c r="E129" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="18.75">
       <c r="A130" s="11" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>476</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>25</v>
+        <v>417</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="18.75">
       <c r="A131" s="11" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>24</v>
@@ -8629,33 +8630,33 @@
       <c r="D131" t="s">
         <v>476</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>477</v>
+      <c r="E131" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75">
       <c r="A132" s="11" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>419</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>25</v>
+        <v>476</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="18.75">
       <c r="A133" s="11" t="s">
-        <v>420</v>
+        <v>119</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>24</v>
@@ -8663,33 +8664,33 @@
       <c r="D133" t="s">
         <v>419</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>415</v>
+      <c r="E133" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="18.75">
       <c r="A134" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>422</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>25</v>
+        <v>419</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="18.75">
       <c r="A135" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>24</v>
@@ -8697,33 +8698,33 @@
       <c r="D135" t="s">
         <v>422</v>
       </c>
-      <c r="E135" s="5" t="s">
-        <v>424</v>
+      <c r="E135" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="18.75">
       <c r="A136" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>426</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>25</v>
+        <v>422</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="18.75">
       <c r="A137" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>24</v>
@@ -8732,32 +8733,32 @@
         <v>426</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>428</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="18.75">
       <c r="A138" s="11" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>25</v>
+        <v>428</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="18.75">
       <c r="A139" s="11" t="s">
-        <v>58</v>
+        <v>416</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>24</v>
@@ -8765,33 +8766,33 @@
       <c r="D139" t="s">
         <v>429</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="18.75">
+      <c r="A140" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" t="s">
+        <v>429</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="30.75">
-      <c r="A140" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D140" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="30.75">
       <c r="A141" s="11" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>24</v>
@@ -8799,33 +8800,33 @@
       <c r="D141" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30.75">
+      <c r="A142" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="18.75">
-      <c r="A142" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" t="s">
-        <v>430</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="18.75">
       <c r="A143" s="11" t="s">
-        <v>420</v>
+        <v>119</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>24</v>
@@ -8833,33 +8834,33 @@
       <c r="D143" t="s">
         <v>430</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>415</v>
+      <c r="E143" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75">
       <c r="A144" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C144" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>25</v>
+        <v>430</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="18.75">
       <c r="A145" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>24</v>
@@ -8867,33 +8868,33 @@
       <c r="D145" t="s">
         <v>431</v>
       </c>
-      <c r="E145" s="5" t="s">
-        <v>424</v>
+      <c r="E145" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="18.75">
       <c r="A146" s="11" t="s">
-        <v>225</v>
+        <v>423</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>432</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>25</v>
+        <v>431</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="18.75">
       <c r="A147" s="11" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>24</v>
@@ -8902,32 +8903,32 @@
         <v>432</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>433</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="18.75">
       <c r="A148" s="11" t="s">
-        <v>434</v>
+        <v>42</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>25</v>
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="18.75">
       <c r="A149" s="11" t="s">
-        <v>291</v>
+        <v>434</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>24</v>
@@ -8935,33 +8936,33 @@
       <c r="D149" t="s">
         <v>435</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>436</v>
+      <c r="E149" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="18.75">
       <c r="A150" s="11" t="s">
-        <v>437</v>
+        <v>291</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>438</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>25</v>
+        <v>435</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="18.75">
       <c r="A151" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>24</v>
@@ -8969,33 +8970,33 @@
       <c r="D151" t="s">
         <v>438</v>
       </c>
-      <c r="E151" s="18" t="s">
-        <v>440</v>
+      <c r="E151" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="18.75">
       <c r="A152" s="11" t="s">
-        <v>344</v>
+        <v>439</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>596</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>25</v>
+        <v>438</v>
+      </c>
+      <c r="E152" s="18" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="18.75">
       <c r="A153" s="11" t="s">
-        <v>597</v>
+        <v>344</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>24</v>
@@ -9009,16 +9010,16 @@
     </row>
     <row r="154" spans="1:5" ht="18.75">
       <c r="A154" s="11" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D154" s="11" t="s">
-        <v>586</v>
+      <c r="D154" t="s">
+        <v>596</v>
       </c>
       <c r="E154" s="16" t="s">
         <v>25</v>
@@ -9026,10 +9027,10 @@
     </row>
     <row r="155" spans="1:5" ht="18.75">
       <c r="A155" s="11" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>24</v>
@@ -9043,44 +9044,44 @@
     </row>
     <row r="156" spans="1:5" ht="18.75">
       <c r="A156" s="11" t="s">
-        <v>465</v>
+        <v>598</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>466</v>
+        <v>20</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E156" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E156" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="18.75">
       <c r="A157" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="18.75">
+      <c r="A158" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="B157" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D157" t="s">
-        <v>442</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="18.75">
-      <c r="A158" s="19" t="s">
-        <v>443</v>
-      </c>
       <c r="B158" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>24</v>
@@ -9093,17 +9094,17 @@
       </c>
     </row>
     <row r="159" spans="1:5" ht="18.75">
-      <c r="A159" s="11" t="s">
-        <v>441</v>
+      <c r="A159" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E159" s="16" t="s">
         <v>25</v>
@@ -9111,10 +9112,10 @@
     </row>
     <row r="160" spans="1:5" ht="18.75">
       <c r="A160" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>24</v>
@@ -9123,32 +9124,32 @@
         <v>444</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>446</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="18.75">
       <c r="A161" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>25</v>
+        <v>446</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75">
       <c r="A162" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>24</v>
@@ -9156,33 +9157,33 @@
       <c r="D162" t="s">
         <v>448</v>
       </c>
-      <c r="E162" s="18" t="s">
-        <v>139</v>
+      <c r="E162" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="18.75">
       <c r="A163" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>451</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>25</v>
+        <v>448</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="18.75">
       <c r="A164" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>24</v>
@@ -9191,32 +9192,32 @@
         <v>451</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>453</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="18.75">
       <c r="A165" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>25</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="18.75">
       <c r="A166" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>24</v>
@@ -9224,33 +9225,33 @@
       <c r="D166" t="s">
         <v>455</v>
       </c>
-      <c r="E166" s="17" t="s">
-        <v>459</v>
+      <c r="E166" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="18.75">
       <c r="A167" s="11" t="s">
-        <v>344</v>
+        <v>456</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D167" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="E167" s="20" t="s">
-        <v>25</v>
+      <c r="D167" t="s">
+        <v>455</v>
+      </c>
+      <c r="E167" s="17" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="18.75">
       <c r="A168" s="11" t="s">
-        <v>583</v>
+        <v>344</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>24</v>
@@ -9264,16 +9265,16 @@
     </row>
     <row r="169" spans="1:5" ht="18.75">
       <c r="A169" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="E169" s="20" t="s">
         <v>25</v>
@@ -9281,95 +9282,95 @@
     </row>
     <row r="170" spans="1:5" ht="18.75">
       <c r="A170" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="18.75">
+      <c r="A171" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="B170" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="B171" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" t="s">
         <v>586</v>
       </c>
-      <c r="E170" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="18.75">
-      <c r="A171" s="19" t="s">
+      <c r="E171" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="18.75">
+      <c r="A172" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="B171" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="B172" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" t="s">
         <v>458</v>
       </c>
-      <c r="E171" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A172" s="11" t="s">
+      <c r="E172" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A173" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="B172" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="B173" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D173" t="s">
         <v>507</v>
       </c>
-      <c r="E172" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A173" s="11" t="s">
+      <c r="E173" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A174" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B174" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C173" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D173" s="11" t="s">
+      <c r="C174" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="E173" s="21" t="s">
+      <c r="E174" s="21" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="18.75">
-      <c r="A174" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D174" t="s">
-        <v>508</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="18.75">
       <c r="A175" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>24</v>
@@ -9378,32 +9379,32 @@
         <v>508</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>302</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="18.75">
       <c r="A176" s="11" t="s">
-        <v>303</v>
+        <v>481</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="18.75">
       <c r="A177" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>24</v>
@@ -9412,32 +9413,32 @@
         <v>509</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="18.75">
       <c r="A178" s="11" t="s">
-        <v>482</v>
+        <v>305</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="18.75">
       <c r="A179" s="11" t="s">
-        <v>240</v>
+        <v>482</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>24</v>
@@ -9445,33 +9446,33 @@
       <c r="D179" t="s">
         <v>483</v>
       </c>
-      <c r="E179" s="18" t="s">
-        <v>484</v>
+      <c r="E179" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="18.75">
       <c r="A180" s="11" t="s">
-        <v>485</v>
+        <v>240</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D180" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>25</v>
+      <c r="D180" t="s">
+        <v>483</v>
+      </c>
+      <c r="E180" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="18.75">
       <c r="A181" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>24</v>
@@ -9479,33 +9480,33 @@
       <c r="D181" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="E181" s="18" t="s">
-        <v>488</v>
+      <c r="E181" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75">
       <c r="A182" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D182" t="s">
-        <v>490</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>25</v>
+      <c r="D182" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E182" s="18" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="18.75">
       <c r="A183" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>24</v>
@@ -9514,32 +9515,32 @@
         <v>490</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>492</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="18.75">
       <c r="A184" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>25</v>
+        <v>492</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="18.75">
       <c r="A185" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>24</v>
@@ -9548,66 +9549,66 @@
         <v>494</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>496</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="18.75">
       <c r="A186" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>25</v>
+        <v>496</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="18.75">
       <c r="A187" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D187" s="11" t="s">
+      <c r="D187" t="s">
         <v>498</v>
       </c>
-      <c r="E187" s="18" t="s">
-        <v>500</v>
+      <c r="E187" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="18.75">
       <c r="A188" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>25</v>
+        <v>498</v>
+      </c>
+      <c r="E188" s="18" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="18.75">
       <c r="A189" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>24</v>
@@ -9615,33 +9616,33 @@
       <c r="D189" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="E189" s="18" t="s">
-        <v>504</v>
+      <c r="E189" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="18.75">
       <c r="A190" s="11" t="s">
-        <v>344</v>
+        <v>503</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>25</v>
+        <v>502</v>
+      </c>
+      <c r="E190" s="18" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="18.75">
       <c r="A191" s="11" t="s">
-        <v>222</v>
+        <v>344</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>24</v>
@@ -9655,16 +9656,16 @@
     </row>
     <row r="192" spans="1:5" ht="18.75">
       <c r="A192" s="11" t="s">
-        <v>584</v>
+        <v>222</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="E192" s="16" t="s">
         <v>25</v>
@@ -9672,10 +9673,10 @@
     </row>
     <row r="193" spans="1:5" ht="18.75">
       <c r="A193" s="11" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>24</v>
@@ -9689,27 +9690,27 @@
     </row>
     <row r="194" spans="1:5" ht="18.75">
       <c r="A194" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="18.75">
+      <c r="A195" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="B194" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="18.75">
-      <c r="A195" s="19" t="s">
-        <v>505</v>
-      </c>
       <c r="B195" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>24</v>
@@ -9722,17 +9723,17 @@
       </c>
     </row>
     <row r="196" spans="1:5" ht="18.75">
-      <c r="A196" s="11" t="s">
-        <v>510</v>
+      <c r="A196" s="19" t="s">
+        <v>505</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D196" t="s">
-        <v>511</v>
+      <c r="D196" s="11" t="s">
+        <v>506</v>
       </c>
       <c r="E196" s="16" t="s">
         <v>25</v>
@@ -9740,10 +9741,10 @@
     </row>
     <row r="197" spans="1:5" ht="18.75">
       <c r="A197" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>24</v>
@@ -9752,66 +9753,66 @@
         <v>511</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>513</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="18.75">
       <c r="A198" s="11" t="s">
-        <v>96</v>
+        <v>512</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D198" s="11" t="s">
-        <v>514</v>
+      <c r="D198" t="s">
+        <v>511</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>25</v>
+        <v>513</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="18.75">
       <c r="A199" s="11" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C199" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="E199" s="22" t="s">
-        <v>515</v>
+      <c r="E199" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="18.75">
       <c r="A200" s="11" t="s">
-        <v>516</v>
+        <v>44</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>517</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>25</v>
+        <v>514</v>
+      </c>
+      <c r="E200" s="22" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="18.75">
       <c r="A201" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C201" s="11" t="s">
         <v>24</v>
@@ -9820,32 +9821,32 @@
         <v>517</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="18.75">
       <c r="A202" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C202" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75">
       <c r="A203" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C203" s="11" t="s">
         <v>24</v>
@@ -9853,33 +9854,33 @@
       <c r="D203" t="s">
         <v>520</v>
       </c>
-      <c r="E203" s="18" t="s">
-        <v>522</v>
+      <c r="E203" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="18.75">
       <c r="A204" s="11" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C204" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>523</v>
-      </c>
-      <c r="E204" s="16" t="s">
-        <v>25</v>
+        <v>520</v>
+      </c>
+      <c r="E204" s="18" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="18.75">
       <c r="A205" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C205" s="11" t="s">
         <v>24</v>
@@ -9887,33 +9888,33 @@
       <c r="D205" t="s">
         <v>523</v>
       </c>
-      <c r="E205" s="18" t="s">
-        <v>524</v>
+      <c r="E205" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="18.75">
       <c r="A206" s="11" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C206" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>526</v>
-      </c>
-      <c r="E206" s="16" t="s">
-        <v>25</v>
+        <v>523</v>
+      </c>
+      <c r="E206" s="18" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="18.75">
       <c r="A207" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C207" s="11" t="s">
         <v>24</v>
@@ -9922,32 +9923,32 @@
         <v>526</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>528</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="18.75">
       <c r="A208" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>25</v>
+        <v>528</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="18.75">
       <c r="A209" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C209" s="11" t="s">
         <v>24</v>
@@ -9956,32 +9957,32 @@
         <v>530</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>532</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="18.75">
       <c r="A210" s="11" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C210" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>25</v>
+        <v>532</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="18.75">
       <c r="A211" s="11" t="s">
-        <v>534</v>
+        <v>473</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>24</v>
@@ -9989,33 +9990,33 @@
       <c r="D211" t="s">
         <v>533</v>
       </c>
-      <c r="E211" s="18" t="s">
-        <v>535</v>
+      <c r="E211" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="18.75">
       <c r="A212" s="11" t="s">
-        <v>434</v>
+        <v>534</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>536</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>25</v>
+        <v>533</v>
+      </c>
+      <c r="E212" s="18" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="18.75">
       <c r="A213" s="11" t="s">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C213" s="11" t="s">
         <v>24</v>
@@ -10023,33 +10024,33 @@
       <c r="D213" t="s">
         <v>536</v>
       </c>
-      <c r="E213" s="22" t="s">
-        <v>537</v>
+      <c r="E213" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="18.75">
       <c r="A214" s="11" t="s">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C214" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>601</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>25</v>
+        <v>536</v>
+      </c>
+      <c r="E214" s="22" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="18.75">
       <c r="A215" s="11" t="s">
-        <v>597</v>
+        <v>344</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>24</v>
@@ -10063,16 +10064,16 @@
     </row>
     <row r="216" spans="1:5" ht="18.75">
       <c r="A216" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C216" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D216" s="11" t="s">
-        <v>586</v>
+      <c r="D216" t="s">
+        <v>601</v>
       </c>
       <c r="E216" s="16" t="s">
         <v>25</v>
@@ -10080,10 +10081,10 @@
     </row>
     <row r="217" spans="1:5" ht="18.75">
       <c r="A217" s="11" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C217" s="11" t="s">
         <v>24</v>
@@ -10096,34 +10097,34 @@
       </c>
     </row>
     <row r="218" spans="1:5" ht="18.75">
-      <c r="A218" s="19" t="s">
+      <c r="A218" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="18.75">
+      <c r="A219" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="B218" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="B219" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219" t="s">
         <v>539</v>
-      </c>
-      <c r="E218" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="18.75">
-      <c r="A219" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B219" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D219" s="11" t="s">
-        <v>542</v>
       </c>
       <c r="E219" s="16" t="s">
         <v>25</v>
@@ -10131,10 +10132,10 @@
     </row>
     <row r="220" spans="1:5" ht="18.75">
       <c r="A220" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C220" s="11" t="s">
         <v>24</v>
@@ -10143,32 +10144,32 @@
         <v>542</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>544</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="18.75">
       <c r="A221" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C221" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D221" t="s">
-        <v>546</v>
+      <c r="D221" s="11" t="s">
+        <v>542</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>25</v>
+        <v>544</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="18.75">
       <c r="A222" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>24</v>
@@ -10177,32 +10178,32 @@
         <v>546</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>548</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="18.75">
       <c r="A223" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>25</v>
+        <v>548</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="18.75">
       <c r="A224" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>24</v>
@@ -10211,32 +10212,32 @@
         <v>550</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>552</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="18.75">
       <c r="A225" s="11" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C225" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D225" s="11" t="s">
-        <v>553</v>
+      <c r="D225" t="s">
+        <v>550</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>25</v>
+        <v>552</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="18.75">
       <c r="A226" s="11" t="s">
-        <v>161</v>
+        <v>519</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>24</v>
@@ -10244,33 +10245,33 @@
       <c r="D226" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="E226" s="18" t="s">
-        <v>554</v>
+      <c r="E226" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="18.75">
       <c r="A227" s="11" t="s">
-        <v>485</v>
+        <v>161</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C227" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="E227" s="16" t="s">
-        <v>25</v>
+        <v>553</v>
+      </c>
+      <c r="E227" s="18" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="18.75">
       <c r="A228" s="11" t="s">
-        <v>556</v>
+        <v>485</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>24</v>
@@ -10278,67 +10279,67 @@
       <c r="D228" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="E228" s="18" t="s">
-        <v>613</v>
+      <c r="E228" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="18.75">
       <c r="A229" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="E229" s="16" t="s">
-        <v>25</v>
+        <v>555</v>
+      </c>
+      <c r="E229" s="18" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="18.75">
       <c r="A230" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C230" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="E230" s="18" t="s">
-        <v>560</v>
+      <c r="E230" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="18.75">
       <c r="A231" s="11" t="s">
-        <v>604</v>
+        <v>559</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C231" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D231" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="E231" s="16" t="s">
-        <v>25</v>
+      <c r="D231" t="s">
+        <v>558</v>
+      </c>
+      <c r="E231" s="18" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="18.75">
       <c r="A232" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>24</v>
@@ -10352,16 +10353,16 @@
     </row>
     <row r="233" spans="1:5" ht="18.75">
       <c r="A233" s="11" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C233" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="E233" s="16" t="s">
         <v>25</v>
@@ -10369,10 +10370,10 @@
     </row>
     <row r="234" spans="1:5" ht="18.75">
       <c r="A234" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C234" s="11" t="s">
         <v>24</v>
@@ -10386,16 +10387,16 @@
     </row>
     <row r="235" spans="1:5" ht="18.75">
       <c r="A235" s="11" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C235" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D235" t="s">
-        <v>561</v>
+      <c r="D235" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="E235" s="16" t="s">
         <v>25</v>
@@ -10403,10 +10404,10 @@
     </row>
     <row r="236" spans="1:5" ht="18.75">
       <c r="A236" s="11" t="s">
-        <v>562</v>
+        <v>603</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C236" s="11" t="s">
         <v>24</v>
@@ -10420,16 +10421,16 @@
     </row>
     <row r="237" spans="1:5" ht="18.75">
       <c r="A237" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C237" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D237" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E237" s="16" t="s">
         <v>25</v>
@@ -10437,112 +10438,112 @@
     </row>
     <row r="238" spans="1:5" ht="18.75">
       <c r="A238" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C238" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D238" s="11" t="s">
+      <c r="D238" t="s">
         <v>564</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>566</v>
+        <v>25</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="18.75">
       <c r="A239" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C239" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D239" t="s">
-        <v>568</v>
+      <c r="D239" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>25</v>
+        <v>566</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="18.75">
       <c r="A240" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C240" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D240" s="11" t="s">
+      <c r="D240" t="s">
         <v>568</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>570</v>
+        <v>25</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="18.75">
       <c r="A241" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C241" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>25</v>
+        <v>570</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="18.75">
       <c r="A242" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C242" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="11" t="s">
         <v>572</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>574</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="18.75">
       <c r="A243" s="11" t="s">
-        <v>157</v>
+        <v>573</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C243" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D243" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>25</v>
+        <v>574</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="18.75">
       <c r="A244" s="11" t="s">
-        <v>576</v>
+        <v>157</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C244" s="11" t="s">
         <v>24</v>
@@ -10551,32 +10552,32 @@
         <v>575</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>577</v>
+        <v>25</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="18.75">
       <c r="A245" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C245" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D245" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>25</v>
+        <v>577</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="18.75">
       <c r="A246" s="11" t="s">
-        <v>531</v>
+        <v>578</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C246" s="11" t="s">
         <v>24</v>
@@ -10585,71 +10586,71 @@
         <v>579</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>302</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="18.75">
       <c r="A247" s="11" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C247" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D247" s="11" t="s">
-        <v>581</v>
+      <c r="D247" t="s">
+        <v>579</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="18.75">
       <c r="A248" s="11" t="s">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C248" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="E248" s="18" t="s">
-        <v>582</v>
+      <c r="E248" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="18.75">
       <c r="A249" s="11" t="s">
-        <v>344</v>
+        <v>240</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C249" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D249" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="E249" s="16" t="s">
-        <v>25</v>
+      <c r="D249" t="s">
+        <v>581</v>
+      </c>
+      <c r="E249" s="18" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="18.75">
       <c r="A250" s="11" t="s">
-        <v>207</v>
+        <v>344</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C250" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="11" t="s">
         <v>607</v>
       </c>
       <c r="E250" s="16" t="s">
@@ -10658,16 +10659,16 @@
     </row>
     <row r="251" spans="1:5" ht="18.75">
       <c r="A251" s="11" t="s">
-        <v>608</v>
+        <v>207</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D251" s="11" t="s">
-        <v>586</v>
+      <c r="D251" t="s">
+        <v>607</v>
       </c>
       <c r="E251" s="16" t="s">
         <v>25</v>
@@ -10675,10 +10676,10 @@
     </row>
     <row r="252" spans="1:5" ht="18.75">
       <c r="A252" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>24</v>
@@ -10687,6 +10688,23 @@
         <v>586</v>
       </c>
       <c r="E252" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="18.75">
+      <c r="A253" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E253" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10694,10 +10712,10 @@
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
     <hyperlink ref="E29" r:id="rId2"/>
-    <hyperlink ref="E125" r:id="rId3"/>
-    <hyperlink ref="E149" r:id="rId4"/>
-    <hyperlink ref="E199" r:id="rId5"/>
-    <hyperlink ref="E213" r:id="rId6"/>
+    <hyperlink ref="E126" r:id="rId3"/>
+    <hyperlink ref="E150" r:id="rId4"/>
+    <hyperlink ref="E200" r:id="rId5"/>
+    <hyperlink ref="E214" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/pack/TestInputs/inputFile.xlsx
+++ b/pack/TestInputs/inputFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="4020" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="4020"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestdata" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7779" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7779" uniqueCount="1463">
   <si>
     <t>Description</t>
   </si>
@@ -4434,9 +4434,6 @@
   </si>
   <si>
     <t>Timecard_viewpastreports</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>select  month</t>
@@ -5017,8 +5014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5175,7 +5172,7 @@
         <v>264</v>
       </c>
       <c r="C13" t="s">
-        <v>1455</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5412,13 +5409,13 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B35" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -6316,7 +6313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
@@ -6580,7 +6577,7 @@
         <v>272</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -6616,7 +6613,7 @@
         <v>275</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -7718,7 +7715,7 @@
     </row>
     <row r="78" spans="1:6" ht="18.75">
       <c r="A78" s="11" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>33</v>
@@ -29536,7 +29533,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>25</v>
@@ -29553,7 +29550,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>1434</v>
@@ -29570,7 +29567,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>25</v>
@@ -29578,7 +29575,7 @@
     </row>
     <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="11" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -29587,7 +29584,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1440</v>

--- a/pack/TestInputs/inputFile.xlsx
+++ b/pack/TestInputs/inputFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="4020"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="4020" firstSheet="32" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestdata" sheetId="1" r:id="rId1"/>
@@ -42,13 +42,14 @@
     <sheet name="Timecard_submitpastdata" sheetId="33" r:id="rId33"/>
     <sheet name="Timecard_viewpastreports" sheetId="34" r:id="rId34"/>
     <sheet name="TimeSheet_Approved Time Sheet" sheetId="35" r:id="rId35"/>
+    <sheet name="Reject time sheet" sheetId="36" r:id="rId36"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7799" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8006" uniqueCount="1533">
   <si>
     <t>Description</t>
   </si>
@@ -3197,9 +3198,6 @@
     <t>clcik on view</t>
   </si>
   <si>
-    <t>//tr[1]//td[1]//a[1]</t>
-  </si>
-  <si>
     <t>//div[2]//div[1]//div[1]//div[3]//button[1]</t>
   </si>
   <si>
@@ -3209,9 +3207,6 @@
     <t>click on delete</t>
   </si>
   <si>
-    <t>//tr[2]//td[1]//a[2]</t>
-  </si>
-  <si>
     <t>wait for pop up yes</t>
   </si>
   <si>
@@ -3269,12 +3264,6 @@
     <t xml:space="preserve">clcik on view </t>
   </si>
   <si>
-    <t>//tr[2]//td[1]//a[1]</t>
-  </si>
-  <si>
-    <t>//button[contains(text(),'Cancel')]</t>
-  </si>
-  <si>
     <t xml:space="preserve">wait for delete </t>
   </si>
   <si>
@@ -3290,9 +3279,6 @@
     <t>clcik on delete ok</t>
   </si>
   <si>
-    <t>//button[contains(@class,'btn btn-primary')]</t>
-  </si>
-  <si>
     <t>Tc_019</t>
   </si>
   <si>
@@ -3311,9 +3297,6 @@
     <t>wait for gender code</t>
   </si>
   <si>
-    <t>//input[contains(@placeholder,'Gender Code')]</t>
-  </si>
-  <si>
     <t>enter gender code</t>
   </si>
   <si>
@@ -3332,27 +3315,15 @@
     <t>//div[5]//div[1]//div[1]//div[3]//button[1]</t>
   </si>
   <si>
-    <t>//tr[5]//td[1]//a[1]</t>
-  </si>
-  <si>
     <t>wait  on pop up</t>
   </si>
   <si>
     <t>wait delete</t>
   </si>
   <si>
-    <t>//tr[5]//td[1]//a[2]</t>
-  </si>
-  <si>
     <t>clcik on genaral</t>
   </si>
   <si>
-    <t>clcik ancel  pop up</t>
-  </si>
-  <si>
-    <t>//div[contains(@class,'modal fade personalpapup in')]//button[contains(@class,'btn btn-danger')][contains(text(),'Close')]</t>
-  </si>
-  <si>
     <t>TC_21</t>
   </si>
   <si>
@@ -3374,21 +3345,12 @@
     <t xml:space="preserve">wait  fo code </t>
   </si>
   <si>
-    <t>//input[contains(@placeholder,'Marial Code')]</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>Married</t>
   </si>
   <si>
-    <t>//input[contains(@placeholder,'Marial Name')]</t>
-  </si>
-  <si>
-    <t>clcik on cancle</t>
-  </si>
-  <si>
     <t>wait fro delete</t>
   </si>
   <si>
@@ -3455,24 +3417,12 @@
     <t>ener code</t>
   </si>
   <si>
-    <t>//input[contains(@placeholder,'Race Code')]</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>wait for rase name</t>
   </si>
   <si>
-    <t>//div[contains(@class,'modal-body')]//div[2]//div[1]//input[1]</t>
-  </si>
-  <si>
     <t>wait for  description</t>
   </si>
   <si>
-    <t>//div[@id='addrace']//div[3]//div[1]//input[1]</t>
-  </si>
-  <si>
     <t>INDIA</t>
   </si>
   <si>
@@ -3497,27 +3447,18 @@
     <t>click on nationalities</t>
   </si>
   <si>
-    <t>//a[contains(text(),'Nationalities')]</t>
-  </si>
-  <si>
     <t>wait nationality</t>
   </si>
   <si>
     <t>enter nationality</t>
   </si>
   <si>
-    <t>//input[contains(@placeholder,'Nationality Code')]</t>
-  </si>
-  <si>
     <t>INDIAN</t>
   </si>
   <si>
     <t>click on view</t>
   </si>
   <si>
-    <t>//tr[4]//td[1]//a[1]</t>
-  </si>
-  <si>
     <t>click on cnacel</t>
   </si>
   <si>
@@ -3554,12 +3495,6 @@
     <t>wait fro description</t>
   </si>
   <si>
-    <t>ener description</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-content']//button[@class='btn btn-danger'][contains(text(),'Close')]</t>
-  </si>
-  <si>
     <t>//button[@class='btn btn-primary']</t>
   </si>
   <si>
@@ -3584,18 +3519,12 @@
     <t>//a[contains(text(),'Countries')]</t>
   </si>
   <si>
-    <t>//div[@class='page-inner in-horizontal-menu']//button[1]</t>
-  </si>
-  <si>
     <t>//select[contains(@name,'country')]</t>
   </si>
   <si>
     <t>Belarus</t>
   </si>
   <si>
-    <t>//button[contains(text(),'Save')]</t>
-  </si>
-  <si>
     <t>wait for close</t>
   </si>
   <si>
@@ -3641,9 +3570,6 @@
     <t xml:space="preserve">click on save </t>
   </si>
   <si>
-    <t>//input[contains(@class,'add1')]</t>
-  </si>
-  <si>
     <t>clcik on po up</t>
   </si>
   <si>
@@ -4482,6 +4408,267 @@
   </si>
   <si>
     <t xml:space="preserve"> Africa/Blantyre </t>
+  </si>
+  <si>
+    <t>//button[@id='add_row']</t>
+  </si>
+  <si>
+    <t>//*[@id="ethinic_view"]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-ethinic/div[5]/div/div/div[3]/button[1]</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-ethinic/div[6]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>//mat-row[4]//mat-cell[4]//button[2]//span[1]//mat-icon[1]</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Gender Code']</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>//*[@id="page-content-wrapper"]/div/div[2]/div/div/div/div[2]/table/tbody/mat-row[1]/mat-cell[4]/button[1]/span/mat-icon</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-dialog']//button[@class='btn btn-danger'][contains(text(),'Close')]</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Marital Code']</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Marital Name']</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-maritalstatus/div[5]/div/div/div[3]/button[1]</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-maritalstatus/div[6]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='RaceCode Name']</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Race Code']</t>
+  </si>
+  <si>
+    <t>//*[@id="Race_view"]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="page-content-wrapper"]/div/div[2]/div/div/div/div[2]/table/tbody/mat-row[1]/mat-cell[5]/button[2]/span/mat-icon</t>
+  </si>
+  <si>
+    <t>Click on delete button</t>
+  </si>
+  <si>
+    <t>wait for yes button</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-racecodes/div[5]/div/div/div[3]/button[1]</t>
+  </si>
+  <si>
+    <t>Click on yes button</t>
+  </si>
+  <si>
+    <t>wait for cancel button</t>
+  </si>
+  <si>
+    <t>Click on cancel button</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-racecodes/div[4]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>add_row</t>
+  </si>
+  <si>
+    <t>//div/div[2]/div/div/div/div[2]/table/tbody/mat-row[1]/mat-cell[5]/button[1]/span/mat-icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on view </t>
+  </si>
+  <si>
+    <t>//mat-row[1]//mat-cell[5]//button[1]//span[1]//mat-icon[1]</t>
+  </si>
+  <si>
+    <t>click  on cancel</t>
+  </si>
+  <si>
+    <t>click on cancle</t>
+  </si>
+  <si>
+    <t>Click on pop up button</t>
+  </si>
+  <si>
+    <t>Wait for pop up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on delete button </t>
+  </si>
+  <si>
+    <t>wait for conformation pop up</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-nationalities/div[5]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="page-content-wrapper"]/div/div[2]/div/div/div/div[2]/table/tbody/mat-row[2]/mat-cell[3]/button[2]/span/mat-icon</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-footer']//following::button[text()='Yes']</t>
+  </si>
+  <si>
+    <t>Click on close</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-footer']//following::button[text()='Add']</t>
+  </si>
+  <si>
+    <t>//*[@id="page-content-wrapper"]/div/div[2]/div/div/div/div[2]/table/tbody/mat-row[2]/mat-cell[4]/button[1]/span/mat-icon</t>
+  </si>
+  <si>
+    <t>//*[@id="page-content-wrapper"]/div/div[2]/div/div/div/div[2]/table/tbody/mat-row[3]/mat-cell[4]/button[2]/span/mat-icon</t>
+  </si>
+  <si>
+    <t>//*[@id="page-content-wrapper"]/div/div[2]/div/div/div/div[2]/table/tbody/mat-row[1]/mat-cell[3]/button[1]/span/mat-icon</t>
+  </si>
+  <si>
+    <t>//*[@id="actype_view"]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="wrapper"]/div[2]/div/div/div/ul/li[1]/ul/span/li[8]/a</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Nationality ']</t>
+  </si>
+  <si>
+    <t>//*[@id="add_row"]</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-accountclass/div[6]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/main[1]/app-root[1]/div[1]/app-on-site-config[1]/app-nationalities[1]/div[2]/div[1]/div[1]/div[3]/button[1]</t>
+  </si>
+  <si>
+    <t>//button[@type='save']</t>
+  </si>
+  <si>
+    <t>//*[@id="page-content-wrapper"]/div/div[2]/div/div/div/div[1]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="ViewstateModal"]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="page-content-wrapper"]/div/div[2]/div/div/div/div[2]/table/tbody/mat-row[2]/mat-cell[4]/button[2]/span/mat-icon</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-countries/div[6]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="stateModal"]/div/div/div/button[1]</t>
+  </si>
+  <si>
+    <t>//*[@id="cityModal"]/div/div/div[3]/button[1]</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-cites/div[7]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="page-content-wrapper"]/div/div[2]/div/div/div/div[2]/table/tbody/mat-row[1]/mat-cell[5]/button[1]/span/mat-icon</t>
+  </si>
+  <si>
+    <t>//*[@id="page-content-wrapper"]/div/div[2]/div/div/div/div[2]/table/tbody/mat-row[2]/mat-cell[5]/button[2]/span/mat-icon</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-cites/div[3]/div/div/div[3]/button[1]</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-cites/div[5]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>wait for pop up close</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-currencies/div[5]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on close </t>
+  </si>
+  <si>
+    <t>Click on view button</t>
+  </si>
+  <si>
+    <t>//*[@id="page-content-wrapper"]/div/div[2]/div/div/div/div[2]/table/tbody/mat-row[1]/mat-cell[4]/button[1]</t>
+  </si>
+  <si>
+    <t>Click on  close button</t>
+  </si>
+  <si>
+    <t>//*[@id="currency_view"]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="page-content-wrapper"]/div/div[2]/div/div/div/div[2]/table/tbody/mat-row[2]/mat-cell[4]/button[2]</t>
+  </si>
+  <si>
+    <t>wait for confomation yes</t>
+  </si>
+  <si>
+    <t>Click on  pop up yes button</t>
+  </si>
+  <si>
+    <t>/html/body/main/app-root/div/app-on-site-config/app-currencies/div[4]/div/div/div[3]/button[1]</t>
+  </si>
+  <si>
+    <t>Wait for cancel button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>/html/body/main/app-r//div[@class='modal-footer']//following::button[text()='Close']</t>
+  </si>
+  <si>
+    <t>Wait for time sheet</t>
+  </si>
+  <si>
+    <t>Click on time sheet</t>
+  </si>
+  <si>
+    <t>//a[@class='waves-effect waves-button']//following::p[text()='TimeSheet']</t>
+  </si>
+  <si>
+    <t>//select[@name='reportingid']</t>
+  </si>
+  <si>
+    <t>wait for reporting manager</t>
+  </si>
+  <si>
+    <t>Select reporting manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bharath kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for candidate </t>
+  </si>
+  <si>
+    <t>Select candidate name</t>
+  </si>
+  <si>
+    <t>//select[@name='candidateid']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MalFoy S</t>
+  </si>
+  <si>
+    <t>Select year</t>
+  </si>
+  <si>
+    <t>//select[@name='yearid']</t>
   </si>
 </sst>
 </file>
@@ -5043,14 +5230,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
@@ -5079,7 +5266,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>1429</v>
+        <v>1404</v>
       </c>
       <c r="D2" s="34"/>
     </row>
@@ -5091,7 +5278,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5102,7 +5289,7 @@
         <v>603</v>
       </c>
       <c r="C4" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5113,7 +5300,7 @@
         <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5124,7 +5311,7 @@
         <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5135,7 +5322,7 @@
         <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5146,7 +5333,7 @@
         <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5157,7 +5344,7 @@
         <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5168,7 +5355,7 @@
         <v>220</v>
       </c>
       <c r="C10" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5179,7 +5366,7 @@
         <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5190,7 +5377,7 @@
         <v>244</v>
       </c>
       <c r="C12" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5201,7 +5388,7 @@
         <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5212,7 +5399,7 @@
         <v>604</v>
       </c>
       <c r="C14" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5223,7 +5410,7 @@
         <v>633</v>
       </c>
       <c r="C15" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5234,7 +5421,7 @@
         <v>814</v>
       </c>
       <c r="C16" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5245,7 +5432,7 @@
         <v>856</v>
       </c>
       <c r="C17" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5256,7 +5443,7 @@
         <v>858</v>
       </c>
       <c r="C18" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5267,184 +5454,184 @@
         <v>1029</v>
       </c>
       <c r="C19" t="s">
-        <v>1429</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="B20" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C20" t="s">
-        <v>1429</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C21" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="B22" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="C22" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>1112</v>
+        <v>1099</v>
       </c>
       <c r="C23" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="C24" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1139</v>
+        <v>1122</v>
       </c>
       <c r="C25" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>1150</v>
+        <v>1130</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1151</v>
+        <v>1131</v>
       </c>
       <c r="C26" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1164</v>
+        <v>1142</v>
       </c>
       <c r="B27" t="s">
-        <v>1165</v>
+        <v>1143</v>
       </c>
       <c r="C27" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>1178</v>
+        <v>1154</v>
       </c>
       <c r="B28" t="s">
-        <v>1179</v>
+        <v>1155</v>
       </c>
       <c r="C28" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>1198</v>
+        <v>1173</v>
       </c>
       <c r="B29" t="s">
-        <v>1199</v>
+        <v>1174</v>
       </c>
       <c r="C29" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>1211</v>
+        <v>1186</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>1212</v>
+        <v>1187</v>
       </c>
       <c r="C30" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="29" customFormat="1">
       <c r="A31" s="29" t="s">
-        <v>1244</v>
+        <v>1219</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>1245</v>
+        <v>1220</v>
       </c>
       <c r="C31" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
       <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>1359</v>
+        <v>1334</v>
       </c>
       <c r="B32" t="s">
-        <v>1360</v>
+        <v>1335</v>
       </c>
       <c r="C32" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1397</v>
+        <v>1372</v>
       </c>
       <c r="B33" t="s">
-        <v>1398</v>
+        <v>1373</v>
       </c>
       <c r="C33" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>1420</v>
+        <v>1395</v>
       </c>
       <c r="B34" t="s">
-        <v>1421</v>
+        <v>1396</v>
       </c>
       <c r="C34" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>1427</v>
+        <v>1402</v>
       </c>
       <c r="B35" t="s">
-        <v>1426</v>
+        <v>1401</v>
       </c>
       <c r="C35" t="s">
-        <v>1432</v>
+        <v>1404</v>
       </c>
     </row>
   </sheetData>
@@ -5621,7 +5808,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>1434</v>
+        <v>1409</v>
       </c>
       <c r="E9" s="44" t="s">
         <v>25</v>
@@ -5638,7 +5825,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>1434</v>
+        <v>1409</v>
       </c>
       <c r="E10" s="44" t="s">
         <v>25</v>
@@ -5655,7 +5842,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>1451</v>
+        <v>1426</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>25</v>
@@ -5788,7 +5975,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1456</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" ht="16.5" customHeight="1">
@@ -5870,7 +6057,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1454</v>
+        <v>1429</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>25</v>
@@ -5887,7 +6074,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1454</v>
+        <v>1429</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -5958,7 +6145,7 @@
         <v>230</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1459</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75">
@@ -5992,7 +6179,7 @@
         <v>233</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1459</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75">
@@ -6026,7 +6213,7 @@
         <v>235</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1282</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75">
@@ -6043,7 +6230,7 @@
         <v>238</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1455</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75">
@@ -6074,7 +6261,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>1457</v>
+        <v>1432</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>25</v>
@@ -6091,7 +6278,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>1457</v>
+        <v>1432</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>25</v>
@@ -6191,7 +6378,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1456</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" ht="16.5" customHeight="1">
@@ -6307,7 +6494,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1458</v>
+        <v>1433</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -6324,7 +6511,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1458</v>
+        <v>1433</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -6607,7 +6794,7 @@
         <v>259</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>1430</v>
+        <v>1405</v>
       </c>
       <c r="F14" s="35"/>
     </row>
@@ -6643,7 +6830,7 @@
         <v>262</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1428</v>
+        <v>1403</v>
       </c>
       <c r="F16" s="35"/>
     </row>
@@ -6715,7 +6902,7 @@
         <v>268</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>1268</v>
+        <v>1243</v>
       </c>
       <c r="F20" s="35"/>
     </row>
@@ -6823,7 +7010,7 @@
         <v>283</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>1279</v>
+        <v>1254</v>
       </c>
       <c r="F26" s="35"/>
     </row>
@@ -6859,7 +7046,7 @@
         <v>284</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>1280</v>
+        <v>1255</v>
       </c>
       <c r="F28" s="35"/>
     </row>
@@ -6877,7 +7064,7 @@
         <v>279</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1353</v>
+        <v>1328</v>
       </c>
       <c r="F29" s="35"/>
     </row>
@@ -6892,7 +7079,7 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>1354</v>
+        <v>1329</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>25</v>
@@ -6910,10 +7097,10 @@
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>1354</v>
+        <v>1329</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>1281</v>
+        <v>1256</v>
       </c>
       <c r="F31" s="35"/>
     </row>
@@ -7039,7 +7226,7 @@
         <v>298</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>1337</v>
+        <v>1312</v>
       </c>
       <c r="F38" s="35"/>
     </row>
@@ -7075,7 +7262,7 @@
         <v>451</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>1338</v>
+        <v>1313</v>
       </c>
       <c r="F40" s="35"/>
     </row>
@@ -7198,7 +7385,7 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>1355</v>
+        <v>1330</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>25</v>
@@ -7216,7 +7403,7 @@
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>1355</v>
+        <v>1330</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>394</v>
@@ -7279,7 +7466,7 @@
     </row>
     <row r="52" spans="1:6" ht="18.75">
       <c r="A52" s="10" t="s">
-        <v>1240</v>
+        <v>1215</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>32</v>
@@ -7288,7 +7475,7 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>1242</v>
+        <v>1217</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>25</v>
@@ -7297,7 +7484,7 @@
     </row>
     <row r="53" spans="1:6" ht="18.75">
       <c r="A53" s="10" t="s">
-        <v>1241</v>
+        <v>1216</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>59</v>
@@ -7306,10 +7493,10 @@
         <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>1242</v>
+        <v>1217</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1330</v>
+        <v>1305</v>
       </c>
       <c r="F53" s="35"/>
     </row>
@@ -7666,7 +7853,7 @@
         <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>1356</v>
+        <v>1331</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>25</v>
@@ -7684,7 +7871,7 @@
         <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>1356</v>
+        <v>1331</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>25</v>
@@ -7745,7 +7932,7 @@
     </row>
     <row r="78" spans="1:6" ht="18.75">
       <c r="A78" s="10" t="s">
-        <v>1425</v>
+        <v>1400</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>32</v>
@@ -7808,7 +7995,7 @@
         <v>338</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>1430</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="18.75">
@@ -7876,7 +8063,7 @@
         <v>343</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>1431</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="18.75">
@@ -7910,7 +8097,7 @@
         <v>346</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>1357</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="18.75">
@@ -8097,7 +8284,7 @@
         <v>360</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18.75">
@@ -8199,7 +8386,7 @@
         <v>367</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1358</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75">
@@ -10834,7 +11021,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1418</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" ht="21.75" customHeight="1">
@@ -10882,7 +11069,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1460</v>
+        <v>1435</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>25</v>
@@ -10899,7 +11086,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1460</v>
+        <v>1435</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>25</v>
@@ -11066,7 +11253,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1461</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" ht="21.75" customHeight="1">
@@ -11168,7 +11355,7 @@
         <v>638</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>1462</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75">
@@ -11202,7 +11389,7 @@
         <v>641</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>1463</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75">
@@ -11338,7 +11525,7 @@
         <v>655</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1464</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75">
@@ -11372,7 +11559,7 @@
         <v>656</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>1343</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75">
@@ -11726,7 +11913,7 @@
         <v>24</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1340</v>
+        <v>1315</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>25</v>
@@ -11734,7 +11921,7 @@
     </row>
     <row r="44" spans="1:5" ht="18.75">
       <c r="A44" s="10" t="s">
-        <v>1339</v>
+        <v>1314</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>20</v>
@@ -11743,7 +11930,7 @@
         <v>24</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1340</v>
+        <v>1315</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>25</v>
@@ -11751,7 +11938,7 @@
     </row>
     <row r="45" spans="1:5" ht="18.75">
       <c r="A45" s="10" t="s">
-        <v>1341</v>
+        <v>1316</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>32</v>
@@ -11760,7 +11947,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>25</v>
@@ -11768,7 +11955,7 @@
     </row>
     <row r="46" spans="1:5" ht="18.75">
       <c r="A46" s="10" t="s">
-        <v>1342</v>
+        <v>1317</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>20</v>
@@ -11777,7 +11964,7 @@
         <v>24</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>25</v>
@@ -11950,7 +12137,7 @@
         <v>695</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>1344</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75">
@@ -12120,7 +12307,7 @@
         <v>707</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>1345</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="18.75">
@@ -12290,7 +12477,7 @@
         <v>717</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>1346</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18.75">
@@ -12460,7 +12647,7 @@
         <v>728</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>1347</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="18.75">
@@ -12499,7 +12686,7 @@
     </row>
     <row r="89" spans="1:5" ht="18.75">
       <c r="A89" s="10" t="s">
-        <v>1232</v>
+        <v>1207</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>32</v>
@@ -12508,7 +12695,7 @@
         <v>24</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>1234</v>
+        <v>1209</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>25</v>
@@ -12516,7 +12703,7 @@
     </row>
     <row r="90" spans="1:5" ht="18.75">
       <c r="A90" s="10" t="s">
-        <v>1233</v>
+        <v>1208</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>20</v>
@@ -12525,7 +12712,7 @@
         <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>1234</v>
+        <v>1209</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>25</v>
@@ -12542,7 +12729,7 @@
         <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>25</v>
@@ -12559,7 +12746,7 @@
         <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>25</v>
@@ -12698,7 +12885,7 @@
         <v>737</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>1348</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18.75">
@@ -12732,7 +12919,7 @@
         <v>740</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>1349</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18.75">
@@ -13154,7 +13341,7 @@
         <v>24</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>1235</v>
+        <v>1210</v>
       </c>
       <c r="E127" s="15" t="s">
         <v>25</v>
@@ -13171,7 +13358,7 @@
         <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>1235</v>
+        <v>1210</v>
       </c>
       <c r="E128" s="15" t="s">
         <v>25</v>
@@ -13188,7 +13375,7 @@
         <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="E129" s="15" t="s">
         <v>25</v>
@@ -13205,7 +13392,7 @@
         <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="E130" s="15" t="s">
         <v>25</v>
@@ -13519,7 +13706,7 @@
     </row>
     <row r="149" spans="1:5" ht="18.75">
       <c r="A149" s="10" t="s">
-        <v>1236</v>
+        <v>1211</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>32</v>
@@ -13528,7 +13715,7 @@
         <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>1237</v>
+        <v>1212</v>
       </c>
       <c r="E149" s="15" t="s">
         <v>25</v>
@@ -13545,7 +13732,7 @@
         <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>1237</v>
+        <v>1212</v>
       </c>
       <c r="E150" s="15" t="s">
         <v>25</v>
@@ -13562,7 +13749,7 @@
         <v>24</v>
       </c>
       <c r="D151" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="E151" s="15" t="s">
         <v>25</v>
@@ -13579,7 +13766,7 @@
         <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="E152" s="15" t="s">
         <v>25</v>
@@ -13667,7 +13854,7 @@
         <v>806</v>
       </c>
       <c r="E157" s="30" t="s">
-        <v>1352</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="18.75">
@@ -13701,7 +13888,7 @@
         <v>809</v>
       </c>
       <c r="E159" s="30" t="s">
-        <v>1351</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="18.75">
@@ -13749,7 +13936,7 @@
         <v>24</v>
       </c>
       <c r="D162" t="s">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="E162" s="10" t="s">
         <v>25</v>
@@ -13766,7 +13953,7 @@
         <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="E163" s="10" t="s">
         <v>25</v>
@@ -13783,7 +13970,7 @@
         <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="E164" s="10" t="s">
         <v>25</v>
@@ -13800,7 +13987,7 @@
         <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="E165" s="10" t="s">
         <v>25</v>
@@ -21003,8 +21190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21237,7 +21424,7 @@
         <v>1037</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>1470</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75">
@@ -21251,7 +21438,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1465</v>
+        <v>1440</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>25</v>
@@ -21268,7 +21455,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1465</v>
+        <v>1440</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>25</v>
@@ -21319,7 +21506,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1468</v>
+        <v>1443</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>25</v>
@@ -21336,7 +21523,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>1468</v>
+        <v>1443</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>25</v>
@@ -21353,7 +21540,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>25</v>
@@ -21370,7 +21557,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>25</v>
@@ -21378,7 +21565,7 @@
     </row>
     <row r="22" spans="1:5" ht="18.75">
       <c r="A22" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>32</v>
@@ -21387,7 +21574,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>1469</v>
+        <v>1444</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>25</v>
@@ -21395,7 +21582,7 @@
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>20</v>
@@ -21404,7 +21591,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>1469</v>
+        <v>1444</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>25</v>
@@ -21412,16 +21599,16 @@
     </row>
     <row r="24" spans="1:5" ht="18.75">
       <c r="A24" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
         <v>1047</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1049</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>25</v>
@@ -21429,7 +21616,7 @@
     </row>
     <row r="25" spans="1:5" ht="18.75">
       <c r="A25" s="10" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>20</v>
@@ -21438,7 +21625,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>25</v>
@@ -21611,8 +21798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21781,7 +21968,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>32</v>
@@ -21790,7 +21977,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -21798,7 +21985,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
@@ -21807,7 +21994,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -21815,7 +22002,7 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="10" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>32</v>
@@ -21824,7 +22011,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -21832,16 +22019,16 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>1054</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1056</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -21858,7 +22045,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>25</v>
@@ -21866,7 +22053,7 @@
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="10" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>20</v>
@@ -21875,7 +22062,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>25</v>
@@ -21883,7 +22070,7 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="10" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>32</v>
@@ -21892,7 +22079,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1466</v>
+        <v>1441</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>25</v>
@@ -21909,15 +22096,15 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>1466</v>
+        <v>1441</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75">
       <c r="A18" s="10" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>32</v>
@@ -21926,7 +22113,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1467</v>
+        <v>1442</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>302</v>
@@ -21934,7 +22121,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="10" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -21943,10 +22130,10 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>1467</v>
+        <v>1442</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75">
@@ -21960,7 +22147,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>1446</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>25</v>
@@ -21968,7 +22155,7 @@
     </row>
     <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="10" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>20</v>
@@ -21977,7 +22164,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>1446</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>25</v>
@@ -21994,7 +22181,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>25</v>
@@ -22011,7 +22198,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>25</v>
@@ -22028,7 +22215,7 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>1066</v>
+        <v>1443</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>25</v>
@@ -22036,7 +22223,7 @@
     </row>
     <row r="25" spans="1:5" ht="18.75">
       <c r="A25" s="10" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>20</v>
@@ -22045,7 +22232,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>1066</v>
+        <v>1443</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>25</v>
@@ -22062,7 +22249,7 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>1067</v>
+        <v>1447</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>25</v>
@@ -22079,7 +22266,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>1067</v>
+        <v>1447</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>25</v>
@@ -22087,7 +22274,7 @@
     </row>
     <row r="28" spans="1:5" ht="18.75">
       <c r="A28" s="10" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>32</v>
@@ -22096,7 +22283,7 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>1046</v>
+        <v>1450</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>25</v>
@@ -22104,7 +22291,7 @@
     </row>
     <row r="29" spans="1:5" ht="18.75">
       <c r="A29" s="10" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>20</v>
@@ -22113,7 +22300,7 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>1046</v>
+        <v>1450</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>25</v>
@@ -22121,7 +22308,7 @@
     </row>
     <row r="30" spans="1:5" ht="18.75">
       <c r="A30" s="10" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>32</v>
@@ -22130,7 +22317,7 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>1448</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>25</v>
@@ -22138,7 +22325,7 @@
     </row>
     <row r="31" spans="1:5" ht="18.75">
       <c r="A31" s="10" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>20</v>
@@ -22147,7 +22334,7 @@
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>1448</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>25</v>
@@ -22155,7 +22342,7 @@
     </row>
     <row r="32" spans="1:5" ht="18.75">
       <c r="A32" s="10" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>20</v>
@@ -22164,7 +22351,7 @@
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>1073</v>
+        <v>1449</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>25</v>
@@ -22180,10 +22367,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22191,7 +22378,7 @@
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22353,7 +22540,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>32</v>
@@ -22362,7 +22549,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -22370,7 +22557,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
@@ -22379,7 +22566,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -22396,7 +22583,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -22404,7 +22591,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="10" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -22413,7 +22600,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -22430,7 +22617,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>25</v>
@@ -22438,7 +22625,7 @@
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="10" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>20</v>
@@ -22447,7 +22634,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>25</v>
@@ -22455,7 +22642,7 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="10" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>32</v>
@@ -22464,7 +22651,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1080</v>
+        <v>1451</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>25</v>
@@ -22472,7 +22659,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="10" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>19</v>
@@ -22481,15 +22668,15 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>1080</v>
+        <v>1451</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>358</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75">
       <c r="A18" s="10" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>32</v>
@@ -22498,7 +22685,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>25</v>
@@ -22506,7 +22693,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="10" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -22515,10 +22702,10 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75">
@@ -22532,7 +22719,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>1446</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>25</v>
@@ -22549,7 +22736,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>1446</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>25</v>
@@ -22566,7 +22753,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>25</v>
@@ -22583,7 +22770,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>25</v>
@@ -22591,7 +22778,7 @@
     </row>
     <row r="24" spans="1:5" ht="18.75">
       <c r="A24" s="10" t="s">
-        <v>931</v>
+        <v>1040</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>32</v>
@@ -22600,7 +22787,7 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>1093</v>
+        <v>1453</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>25</v>
@@ -22608,7 +22795,7 @@
     </row>
     <row r="25" spans="1:5" ht="18.75">
       <c r="A25" s="10" t="s">
-        <v>1092</v>
+        <v>1119</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>20</v>
@@ -22616,8 +22803,8 @@
       <c r="C25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>1093</v>
+      <c r="D25" t="s">
+        <v>1453</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>25</v>
@@ -22625,7 +22812,7 @@
     </row>
     <row r="26" spans="1:5" ht="18.75">
       <c r="A26" s="10" t="s">
-        <v>1040</v>
+        <v>1081</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>32</v>
@@ -22634,7 +22821,7 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>1087</v>
+        <v>1454</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>25</v>
@@ -22642,7 +22829,7 @@
     </row>
     <row r="27" spans="1:5" ht="18.75">
       <c r="A27" s="10" t="s">
-        <v>1065</v>
+        <v>1011</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>20</v>
@@ -22651,7 +22838,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>1087</v>
+        <v>1454</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>25</v>
@@ -22659,7 +22846,7 @@
     </row>
     <row r="28" spans="1:5" ht="18.75">
       <c r="A28" s="10" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>32</v>
@@ -22667,8 +22854,8 @@
       <c r="C28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D28" t="s">
-        <v>1067</v>
+      <c r="D28" s="10" t="s">
+        <v>1450</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>25</v>
@@ -22676,7 +22863,7 @@
     </row>
     <row r="29" spans="1:5" ht="18.75">
       <c r="A29" s="10" t="s">
-        <v>1011</v>
+        <v>1065</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>20</v>
@@ -22685,7 +22872,7 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>1067</v>
+        <v>1450</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>25</v>
@@ -22693,7 +22880,7 @@
     </row>
     <row r="30" spans="1:5" ht="18.75">
       <c r="A30" s="10" t="s">
-        <v>1089</v>
+        <v>617</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>32</v>
@@ -22701,8 +22888,8 @@
       <c r="C30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>1090</v>
+      <c r="D30" t="s">
+        <v>186</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>25</v>
@@ -22710,7 +22897,7 @@
     </row>
     <row r="31" spans="1:5" ht="18.75">
       <c r="A31" s="10" t="s">
-        <v>1069</v>
+        <v>1011</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>20</v>
@@ -22719,43 +22906,9 @@
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>1090</v>
+        <v>186</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18.75">
-      <c r="A32" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.75">
-      <c r="A33" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -22769,10 +22922,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" activeCellId="10" sqref="A1:XFD1 A2:XFD2 A3:XFD3 A4:XFD4 A5:XFD5 A6:XFD6 A7:XFD7 A8:XFD8 A9:XFD9 A10:XFD10 A11:XFD11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22780,7 +22933,7 @@
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22942,7 +23095,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>32</v>
@@ -22951,7 +23104,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -22959,7 +23112,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
@@ -22968,7 +23121,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -22976,7 +23129,7 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="10" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>32</v>
@@ -22985,7 +23138,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -22993,7 +23146,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="10" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -23002,7 +23155,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -23019,7 +23172,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>25</v>
@@ -23027,7 +23180,7 @@
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="10" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>20</v>
@@ -23036,7 +23189,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>25</v>
@@ -23044,7 +23197,7 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="10" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>32</v>
@@ -23053,7 +23206,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1101</v>
+        <v>1455</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>25</v>
@@ -23061,7 +23214,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="10" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>19</v>
@@ -23070,10 +23223,10 @@
         <v>24</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1101</v>
+        <v>1455</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75">
@@ -23087,7 +23240,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1104</v>
+        <v>1456</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>25</v>
@@ -23104,10 +23257,10 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>1104</v>
+        <v>1456</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75">
@@ -23118,10 +23271,10 @@
         <v>32</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>1470</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>25</v>
@@ -23129,16 +23282,16 @@
     </row>
     <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="10" t="s">
-        <v>1035</v>
+        <v>147</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>1470</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>25</v>
@@ -23155,7 +23308,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>1063</v>
+        <v>1418</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>25</v>
@@ -23163,16 +23316,16 @@
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>1012</v>
+        <v>931</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>1063</v>
+      <c r="D23" t="s">
+        <v>1418</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>25</v>
@@ -23180,16 +23333,16 @@
     </row>
     <row r="24" spans="1:5" ht="18.75">
       <c r="A24" s="10" t="s">
-        <v>1040</v>
+        <v>1474</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D24" t="s">
-        <v>1066</v>
+      <c r="D24" s="10" t="s">
+        <v>1418</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>25</v>
@@ -23197,16 +23350,16 @@
     </row>
     <row r="25" spans="1:5" ht="18.75">
       <c r="A25" s="10" t="s">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>1066</v>
+        <v>1473</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>25</v>
@@ -23214,16 +23367,16 @@
     </row>
     <row r="26" spans="1:5" ht="18.75">
       <c r="A26" s="10" t="s">
-        <v>931</v>
+        <v>1472</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>1067</v>
+        <v>1473</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>25</v>
@@ -23231,16 +23384,16 @@
     </row>
     <row r="27" spans="1:5" ht="18.75">
       <c r="A27" s="10" t="s">
-        <v>1105</v>
+        <v>931</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>1067</v>
+        <v>1454</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>25</v>
@@ -23248,16 +23401,16 @@
     </row>
     <row r="28" spans="1:5" ht="18.75">
       <c r="A28" s="10" t="s">
-        <v>1106</v>
+        <v>1475</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>1046</v>
+        <v>1454</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>25</v>
@@ -23265,16 +23418,16 @@
     </row>
     <row r="29" spans="1:5" ht="18.75">
       <c r="A29" s="10" t="s">
-        <v>1045</v>
+        <v>1093</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>1046</v>
+        <v>1450</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>25</v>
@@ -23282,16 +23435,16 @@
     </row>
     <row r="30" spans="1:5" ht="18.75">
       <c r="A30" s="10" t="s">
-        <v>1107</v>
+        <v>1044</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>1450</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>25</v>
@@ -23299,16 +23452,16 @@
     </row>
     <row r="31" spans="1:5" ht="18.75">
       <c r="A31" s="10" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>1457</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>25</v>
@@ -23316,16 +23469,16 @@
     </row>
     <row r="32" spans="1:5" ht="18.75">
       <c r="A32" s="10" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>1073</v>
+        <v>1457</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>25</v>
@@ -23333,18 +23486,35 @@
     </row>
     <row r="33" spans="1:5" ht="18.75">
       <c r="A33" s="10" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>1073</v>
+        <v>1458</v>
       </c>
       <c r="E33" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75">
+      <c r="A34" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -23531,7 +23701,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>32</v>
@@ -23540,7 +23710,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -23548,7 +23718,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
@@ -23557,7 +23727,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -23565,7 +23735,7 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="10" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>32</v>
@@ -23574,7 +23744,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -23582,7 +23752,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="10" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -23591,7 +23761,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -23608,7 +23778,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>25</v>
@@ -23616,7 +23786,7 @@
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="10" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>20</v>
@@ -23625,7 +23795,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>25</v>
@@ -23633,7 +23803,7 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="10" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>32</v>
@@ -23642,7 +23812,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>25</v>
@@ -23650,7 +23820,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="10" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>19</v>
@@ -23659,10 +23829,10 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75">
@@ -23676,7 +23846,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>25</v>
@@ -23693,10 +23863,10 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75">
@@ -23710,7 +23880,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>25</v>
@@ -23727,7 +23897,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>25</v>
@@ -23771,10 +23941,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" activeCellId="10" sqref="A1:XFD1 A2:XFD2 A3:XFD3 A4:XFD4 A5:XFD5 A6:XFD6 A7:XFD7 A8:XFD8 A9:XFD9 A10:XFD10 A11:XFD11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23782,7 +23952,7 @@
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="16.5" customHeight="1">
@@ -23943,7 +24113,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>32</v>
@@ -23952,7 +24122,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -23960,7 +24130,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
@@ -23969,7 +24139,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -23986,7 +24156,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -23994,7 +24164,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="10" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -24003,7 +24173,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -24020,7 +24190,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>25</v>
@@ -24028,7 +24198,7 @@
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="10" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>20</v>
@@ -24037,7 +24207,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>25</v>
@@ -24045,7 +24215,7 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="10" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>32</v>
@@ -24054,7 +24224,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1128</v>
+        <v>1459</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>25</v>
@@ -24062,7 +24232,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="10" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>19</v>
@@ -24071,15 +24241,15 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>1128</v>
+        <v>1459</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1129</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75">
       <c r="A18" s="10" t="s">
-        <v>1130</v>
+        <v>1115</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>32</v>
@@ -24088,7 +24258,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1131</v>
+        <v>1460</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>25</v>
@@ -24099,13 +24269,13 @@
         <v>518</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>1131</v>
+        <v>1460</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>405</v>
@@ -24113,7 +24283,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="10" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>32</v>
@@ -24122,7 +24292,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>1133</v>
+        <v>156</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>25</v>
@@ -24139,10 +24309,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>1133</v>
+        <v>156</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>1134</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75">
@@ -24153,10 +24323,10 @@
         <v>32</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>1470</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>25</v>
@@ -24164,16 +24334,16 @@
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>1470</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>25</v>
@@ -24181,7 +24351,7 @@
     </row>
     <row r="24" spans="1:5" ht="18.75">
       <c r="A24" s="10" t="s">
-        <v>1040</v>
+        <v>571</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>32</v>
@@ -24190,7 +24360,7 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>1042</v>
+        <v>1469</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>25</v>
@@ -24198,7 +24368,7 @@
     </row>
     <row r="25" spans="1:5" ht="18.75">
       <c r="A25" s="10" t="s">
-        <v>1136</v>
+        <v>1476</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>20</v>
@@ -24207,7 +24377,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>1042</v>
+        <v>1469</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>25</v>
@@ -24215,7 +24385,7 @@
     </row>
     <row r="26" spans="1:5" ht="18.75">
       <c r="A26" s="10" t="s">
-        <v>931</v>
+        <v>1040</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>32</v>
@@ -24224,7 +24394,7 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>1067</v>
+        <v>1471</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>25</v>
@@ -24232,7 +24402,7 @@
     </row>
     <row r="27" spans="1:5" ht="18.75">
       <c r="A27" s="10" t="s">
-        <v>1137</v>
+        <v>1119</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>20</v>
@@ -24241,9 +24411,145 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>1067</v>
+        <v>1471</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.75">
+      <c r="A28" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75">
+      <c r="A29" s="10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.75">
+      <c r="A30" s="10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.75">
+      <c r="A31" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.75">
+      <c r="A32" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75">
+      <c r="A33" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75">
+      <c r="A34" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.75">
+      <c r="A35" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -24257,15 +24563,15 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" activeCellId="10" sqref="A1:XFD1 A2:XFD2 A3:XFD3 A4:XFD4 A5:XFD5 A6:XFD6 A7:XFD7 A8:XFD8 A9:XFD9 A10:XFD10 A11:XFD11"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
@@ -24430,7 +24736,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>32</v>
@@ -24439,7 +24745,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -24447,7 +24753,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
@@ -24456,7 +24762,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -24464,7 +24770,7 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="10" t="s">
-        <v>1140</v>
+        <v>1123</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>32</v>
@@ -24473,7 +24779,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1142</v>
+        <v>1489</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -24481,7 +24787,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="10" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -24490,7 +24796,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1142</v>
+        <v>1489</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -24507,7 +24813,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>25</v>
@@ -24515,7 +24821,7 @@
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="10" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>20</v>
@@ -24524,7 +24830,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>25</v>
@@ -24532,7 +24838,7 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="10" t="s">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>32</v>
@@ -24541,7 +24847,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1145</v>
+        <v>1490</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>25</v>
@@ -24549,7 +24855,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="10" t="s">
-        <v>1144</v>
+        <v>1126</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>19</v>
@@ -24558,10 +24864,10 @@
         <v>24</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1145</v>
+        <v>1490</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1146</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75">
@@ -24575,7 +24881,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>1491</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>25</v>
@@ -24583,7 +24889,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="10" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>20</v>
@@ -24592,7 +24898,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>1491</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>25</v>
@@ -24600,7 +24906,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="10" t="s">
-        <v>1040</v>
+        <v>1477</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>32</v>
@@ -24608,8 +24914,8 @@
       <c r="C20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
-        <v>1148</v>
+      <c r="D20" s="10" t="s">
+        <v>1480</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>25</v>
@@ -24617,7 +24923,7 @@
     </row>
     <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="10" t="s">
-        <v>1147</v>
+        <v>1367</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>20</v>
@@ -24625,8 +24931,8 @@
       <c r="C21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
-        <v>1148</v>
+      <c r="D21" s="10" t="s">
+        <v>1480</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>25</v>
@@ -24634,7 +24940,7 @@
     </row>
     <row r="22" spans="1:5" ht="18.75">
       <c r="A22" s="10" t="s">
-        <v>931</v>
+        <v>1040</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>32</v>
@@ -24643,7 +24949,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>1067</v>
+        <v>1487</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>25</v>
@@ -24651,7 +24957,7 @@
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>20</v>
@@ -24660,9 +24966,145 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>1067</v>
+        <v>1487</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75">
+      <c r="A24" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75">
+      <c r="A25" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.75">
+      <c r="A26" s="10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.75">
+      <c r="A27" s="10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.75">
+      <c r="A28" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75">
+      <c r="A29" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.75">
+      <c r="A30" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.75">
+      <c r="A31" s="10" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -24678,8 +25120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" activeCellId="8" sqref="A1:XFD1 A2:XFD2 A3:XFD3 A4:XFD4 A5:XFD5 A6:XFD6 A7:XFD7 A8:XFD8 A9:XFD9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24849,7 +25291,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>32</v>
@@ -24858,7 +25300,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -24866,7 +25308,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
@@ -24875,7 +25317,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -24892,7 +25334,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1153</v>
+        <v>1133</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -24900,7 +25342,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="10" t="s">
-        <v>1152</v>
+        <v>1132</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -24909,7 +25351,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1153</v>
+        <v>1133</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -24917,7 +25359,7 @@
     </row>
     <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="10" t="s">
-        <v>1154</v>
+        <v>1134</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>32</v>
@@ -24926,7 +25368,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1155</v>
+        <v>1135</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>25</v>
@@ -24943,7 +25385,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1155</v>
+        <v>1135</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>25</v>
@@ -24951,7 +25393,7 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="10" t="s">
-        <v>1156</v>
+        <v>1136</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>32</v>
@@ -24960,7 +25402,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1158</v>
+        <v>1138</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>25</v>
@@ -24968,7 +25410,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="10" t="s">
-        <v>1157</v>
+        <v>1137</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>19</v>
@@ -24977,15 +25419,15 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>1158</v>
+        <v>1138</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1159</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75">
       <c r="A18" s="10" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>32</v>
@@ -25002,7 +25444,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="10" t="s">
-        <v>1161</v>
+        <v>157</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -25014,7 +25456,7 @@
         <v>156</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1159</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75">
@@ -25028,7 +25470,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>1484</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>25</v>
@@ -25045,7 +25487,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>1484</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>25</v>
@@ -25062,7 +25504,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>1162</v>
+        <v>1418</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>25</v>
@@ -25070,7 +25512,7 @@
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>20</v>
@@ -25079,7 +25521,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>1162</v>
+        <v>1418</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>25</v>
@@ -25096,7 +25538,7 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>1042</v>
+        <v>1485</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>25</v>
@@ -25113,7 +25555,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>1042</v>
+        <v>1485</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>25</v>
@@ -25130,7 +25572,7 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>1067</v>
+        <v>1488</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>25</v>
@@ -25138,7 +25580,7 @@
     </row>
     <row r="27" spans="1:5" ht="18.75">
       <c r="A27" s="10" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>20</v>
@@ -25147,7 +25589,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>1067</v>
+        <v>1488</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>25</v>
@@ -25155,7 +25597,7 @@
     </row>
     <row r="28" spans="1:5" ht="18.75">
       <c r="A28" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>32</v>
@@ -25164,7 +25606,7 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>1046</v>
+        <v>1486</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>25</v>
@@ -25172,7 +25614,7 @@
     </row>
     <row r="29" spans="1:5" ht="18.75">
       <c r="A29" s="10" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>20</v>
@@ -25181,7 +25623,7 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>1046</v>
+        <v>1486</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>25</v>
@@ -25189,7 +25631,7 @@
     </row>
     <row r="30" spans="1:5" ht="18.75">
       <c r="A30" s="10" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>32</v>
@@ -25198,7 +25640,7 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>1482</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>25</v>
@@ -25206,7 +25648,7 @@
     </row>
     <row r="31" spans="1:5" ht="18.75">
       <c r="A31" s="10" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>20</v>
@@ -25215,7 +25657,7 @@
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>1482</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>25</v>
@@ -25232,7 +25674,7 @@
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>1163</v>
+        <v>1492</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>25</v>
@@ -25240,7 +25682,7 @@
     </row>
     <row r="33" spans="1:5" ht="18.75">
       <c r="A33" s="10" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>20</v>
@@ -25249,7 +25691,7 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>1163</v>
+        <v>1492</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>25</v>
@@ -25267,8 +25709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25438,7 +25880,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1166</v>
+        <v>1144</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>32</v>
@@ -25447,7 +25889,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1168</v>
+        <v>1146</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -25455,7 +25897,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>1167</v>
+        <v>1145</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
@@ -25464,7 +25906,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1168</v>
+        <v>1146</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -25481,7 +25923,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1170</v>
+        <v>1148</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -25489,7 +25931,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="10" t="s">
-        <v>1169</v>
+        <v>1147</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -25498,7 +25940,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1170</v>
+        <v>1148</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -25515,7 +25957,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1171</v>
+        <v>1495</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>25</v>
@@ -25532,7 +25974,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1171</v>
+        <v>1495</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>25</v>
@@ -25549,7 +25991,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1172</v>
+        <v>1149</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>25</v>
@@ -25566,10 +26008,10 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>1172</v>
+        <v>1149</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1173</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75">
@@ -25583,7 +26025,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1174</v>
+        <v>1494</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>25</v>
@@ -25600,7 +26042,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>1174</v>
+        <v>1494</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>25</v>
@@ -25608,7 +26050,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="10" t="s">
-        <v>1175</v>
+        <v>1151</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>32</v>
@@ -25625,7 +26067,7 @@
     </row>
     <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="10" t="s">
-        <v>1176</v>
+        <v>1152</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>20</v>
@@ -25651,7 +26093,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>1066</v>
+        <v>1453</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>25</v>
@@ -25659,7 +26101,7 @@
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>1177</v>
+        <v>1153</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>20</v>
@@ -25668,7 +26110,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>1066</v>
+        <v>1453</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>25</v>
@@ -25685,7 +26127,7 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>1067</v>
+        <v>1496</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>25</v>
@@ -25702,7 +26144,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>1067</v>
+        <v>1496</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>25</v>
@@ -25710,7 +26152,7 @@
     </row>
     <row r="26" spans="1:5" ht="18.75">
       <c r="A26" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>32</v>
@@ -25719,7 +26161,7 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>1046</v>
+        <v>1497</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>25</v>
@@ -25736,7 +26178,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>1046</v>
+        <v>1497</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>25</v>
@@ -25744,16 +26186,16 @@
     </row>
     <row r="28" spans="1:5" ht="18.75">
       <c r="A28" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
         <v>1047</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1049</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>25</v>
@@ -25761,7 +26203,7 @@
     </row>
     <row r="29" spans="1:5" ht="18.75">
       <c r="A29" s="10" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>20</v>
@@ -25770,7 +26212,7 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>25</v>
@@ -25787,7 +26229,7 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>619</v>
+        <v>1498</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>25</v>
@@ -25804,7 +26246,7 @@
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>619</v>
+        <v>1498</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>25</v>
@@ -25822,8 +26264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25993,7 +26435,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1166</v>
+        <v>1144</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>32</v>
@@ -26002,7 +26444,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1168</v>
+        <v>1146</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -26010,7 +26452,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>1167</v>
+        <v>1145</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
@@ -26019,7 +26461,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1168</v>
+        <v>1146</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -26027,7 +26469,7 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="10" t="s">
-        <v>1180</v>
+        <v>1156</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>32</v>
@@ -26036,7 +26478,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -26044,7 +26486,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="10" t="s">
-        <v>1181</v>
+        <v>1157</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -26053,7 +26495,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -26070,7 +26512,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>25</v>
@@ -26087,7 +26529,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>25</v>
@@ -26104,7 +26546,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>25</v>
@@ -26112,7 +26554,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="10" t="s">
-        <v>1184</v>
+        <v>1160</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -26121,7 +26563,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>405</v>
@@ -26138,7 +26580,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1186</v>
+        <v>1162</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>25</v>
@@ -26146,7 +26588,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="10" t="s">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>59</v>
@@ -26155,15 +26597,15 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>1186</v>
+        <v>1162</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1187</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="10" t="s">
-        <v>1188</v>
+        <v>1164</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>32</v>
@@ -26172,7 +26614,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>1190</v>
+        <v>1499</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>25</v>
@@ -26180,7 +26622,7 @@
     </row>
     <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="10" t="s">
-        <v>1189</v>
+        <v>1165</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>20</v>
@@ -26189,7 +26631,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>1190</v>
+        <v>1499</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>25</v>
@@ -26214,7 +26656,7 @@
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>1191</v>
+        <v>1166</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>20</v>
@@ -26231,7 +26673,7 @@
     </row>
     <row r="24" spans="1:5" ht="18.75">
       <c r="A24" s="10" t="s">
-        <v>1192</v>
+        <v>1167</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>32</v>
@@ -26240,7 +26682,7 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>1066</v>
+        <v>1453</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>25</v>
@@ -26248,7 +26690,7 @@
     </row>
     <row r="25" spans="1:5" ht="18.75">
       <c r="A25" s="10" t="s">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>20</v>
@@ -26257,7 +26699,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>1066</v>
+        <v>1453</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>25</v>
@@ -26274,7 +26716,7 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>1067</v>
+        <v>1496</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>25</v>
@@ -26282,7 +26724,7 @@
     </row>
     <row r="27" spans="1:5" ht="18.75">
       <c r="A27" s="10" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>20</v>
@@ -26291,7 +26733,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>1067</v>
+        <v>1496</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>25</v>
@@ -26299,7 +26741,7 @@
     </row>
     <row r="28" spans="1:5" ht="18.75">
       <c r="A28" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>32</v>
@@ -26308,7 +26750,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>1046</v>
+        <v>1497</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>25</v>
@@ -26316,7 +26758,7 @@
     </row>
     <row r="29" spans="1:5" ht="18.75">
       <c r="A29" s="10" t="s">
-        <v>1193</v>
+        <v>1168</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>20</v>
@@ -26325,7 +26767,7 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>1046</v>
+        <v>1497</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>25</v>
@@ -26333,7 +26775,7 @@
     </row>
     <row r="30" spans="1:5" ht="18.75">
       <c r="A30" s="10" t="s">
-        <v>1194</v>
+        <v>1169</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>32</v>
@@ -26342,7 +26784,7 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>25</v>
@@ -26350,7 +26792,7 @@
     </row>
     <row r="31" spans="1:5" ht="18.75">
       <c r="A31" s="10" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>20</v>
@@ -26359,7 +26801,7 @@
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>25</v>
@@ -26367,7 +26809,7 @@
     </row>
     <row r="32" spans="1:5" ht="18.75">
       <c r="A32" s="10" t="s">
-        <v>1195</v>
+        <v>1170</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>32</v>
@@ -26376,7 +26818,7 @@
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>1197</v>
+        <v>1172</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>25</v>
@@ -26384,7 +26826,7 @@
     </row>
     <row r="33" spans="1:5" ht="18.75">
       <c r="A33" s="10" t="s">
-        <v>1196</v>
+        <v>1171</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>20</v>
@@ -26393,7 +26835,7 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>1197</v>
+        <v>1172</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>25</v>
@@ -26409,10 +26851,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26581,7 +27023,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1166</v>
+        <v>1144</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>32</v>
@@ -26590,7 +27032,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1168</v>
+        <v>1146</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -26598,7 +27040,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>1167</v>
+        <v>1145</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
@@ -26607,7 +27049,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1168</v>
+        <v>1146</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -26615,7 +27057,7 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="10" t="s">
-        <v>1200</v>
+        <v>1175</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>32</v>
@@ -26624,7 +27066,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1202</v>
+        <v>1177</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -26632,7 +27074,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="10" t="s">
-        <v>1201</v>
+        <v>1176</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -26641,7 +27083,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1202</v>
+        <v>1177</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -26649,7 +27091,7 @@
     </row>
     <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="10" t="s">
-        <v>1154</v>
+        <v>1134</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>32</v>
@@ -26666,7 +27108,7 @@
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="10" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>20</v>
@@ -26692,7 +27134,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>25</v>
@@ -26709,7 +27151,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="E17" t="s">
         <v>405</v>
@@ -26717,7 +27159,7 @@
     </row>
     <row r="18" spans="1:5" ht="18.75">
       <c r="A18" s="10" t="s">
-        <v>1203</v>
+        <v>1178</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>32</v>
@@ -26726,7 +27168,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1186</v>
+        <v>1162</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>25</v>
@@ -26734,7 +27176,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="10" t="s">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>59</v>
@@ -26743,15 +27185,15 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>1186</v>
+        <v>1162</v>
       </c>
       <c r="E19" t="s">
-        <v>1187</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="10" t="s">
-        <v>1200</v>
+        <v>1175</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>32</v>
@@ -26760,15 +27202,15 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>1206</v>
+        <v>1181</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>1207</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="10" t="s">
-        <v>1204</v>
+        <v>1179</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>59</v>
@@ -26777,10 +27219,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>1206</v>
+        <v>1181</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>1208</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75">
@@ -26794,7 +27236,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>1174</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>25</v>
@@ -26802,7 +27244,7 @@
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>1205</v>
+        <v>1180</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>20</v>
@@ -26811,7 +27253,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>1174</v>
+        <v>1500</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>25</v>
@@ -26828,7 +27270,7 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>619</v>
+        <v>1501</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>25</v>
@@ -26845,7 +27287,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>619</v>
+        <v>1501</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>25</v>
@@ -26853,7 +27295,7 @@
     </row>
     <row r="26" spans="1:5" ht="18.75">
       <c r="A26" s="10" t="s">
-        <v>1192</v>
+        <v>1167</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>32</v>
@@ -26862,7 +27304,7 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>1066</v>
+        <v>1502</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>25</v>
@@ -26870,7 +27312,7 @@
     </row>
     <row r="27" spans="1:5" ht="18.75">
       <c r="A27" s="10" t="s">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>20</v>
@@ -26879,7 +27321,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>1066</v>
+        <v>1502</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>25</v>
@@ -26896,7 +27338,7 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>1067</v>
+        <v>1496</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>25</v>
@@ -26904,7 +27346,7 @@
     </row>
     <row r="29" spans="1:5" ht="18.75">
       <c r="A29" s="10" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>20</v>
@@ -26913,7 +27355,7 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>1067</v>
+        <v>1496</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>25</v>
@@ -26921,7 +27363,7 @@
     </row>
     <row r="30" spans="1:5" ht="18.75">
       <c r="A30" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>32</v>
@@ -26930,7 +27372,7 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>1046</v>
+        <v>1503</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>25</v>
@@ -26938,7 +27380,7 @@
     </row>
     <row r="31" spans="1:5" ht="18.75">
       <c r="A31" s="10" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>20</v>
@@ -26947,7 +27389,7 @@
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>1046</v>
+        <v>1503</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>25</v>
@@ -26955,7 +27397,7 @@
     </row>
     <row r="32" spans="1:5" ht="18.75">
       <c r="A32" s="10" t="s">
-        <v>1209</v>
+        <v>1184</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>32</v>
@@ -26964,7 +27406,7 @@
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>1049</v>
+        <v>1504</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>25</v>
@@ -26972,7 +27414,7 @@
     </row>
     <row r="33" spans="1:5" ht="18.75">
       <c r="A33" s="10" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>20</v>
@@ -26981,7 +27423,7 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>1049</v>
+        <v>1504</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>25</v>
@@ -26989,7 +27431,7 @@
     </row>
     <row r="34" spans="1:5" ht="18.75">
       <c r="A34" s="10" t="s">
-        <v>1210</v>
+        <v>1185</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>32</v>
@@ -26998,7 +27440,7 @@
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>619</v>
+        <v>1505</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>25</v>
@@ -27006,7 +27448,7 @@
     </row>
     <row r="35" spans="1:5" ht="18.75">
       <c r="A35" s="10" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>20</v>
@@ -27015,12 +27457,13 @@
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>619</v>
+        <v>1505</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="39" spans="1:5" ht="12.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
@@ -27178,10 +27621,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27351,7 +27794,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1213</v>
+        <v>1188</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>32</v>
@@ -27360,7 +27803,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1217</v>
+        <v>1192</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -27368,7 +27811,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>1214</v>
+        <v>1189</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>20</v>
@@ -27377,7 +27820,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1217</v>
+        <v>1192</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -27385,7 +27828,7 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="10" t="s">
-        <v>1215</v>
+        <v>1190</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>32</v>
@@ -27394,7 +27837,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1218</v>
+        <v>1193</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -27402,7 +27845,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="10" t="s">
-        <v>1216</v>
+        <v>1191</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>20</v>
@@ -27411,7 +27854,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1218</v>
+        <v>1193</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -27428,7 +27871,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>25</v>
@@ -27445,7 +27888,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>25</v>
@@ -27453,7 +27896,7 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="10" t="s">
-        <v>1219</v>
+        <v>1194</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>32</v>
@@ -27462,7 +27905,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1222</v>
+        <v>1197</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>25</v>
@@ -27470,7 +27913,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="10" t="s">
-        <v>1220</v>
+        <v>1195</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>19</v>
@@ -27479,15 +27922,15 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>1222</v>
+        <v>1197</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1221</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75">
       <c r="A18" s="10" t="s">
-        <v>1223</v>
+        <v>1198</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>32</v>
@@ -27496,7 +27939,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1224</v>
+        <v>1199</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>25</v>
@@ -27504,7 +27947,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="10" t="s">
-        <v>1225</v>
+        <v>1200</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -27513,15 +27956,15 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>1224</v>
+        <v>1199</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="10" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>32</v>
@@ -27530,7 +27973,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>25</v>
@@ -27547,15 +27990,15 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75">
       <c r="A22" s="10" t="s">
-        <v>1230</v>
+        <v>1205</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>32</v>
@@ -27564,7 +28007,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>1494</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>25</v>
@@ -27581,10 +28024,219 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>1494</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75">
+      <c r="A24" s="10" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75">
+      <c r="A25" s="10" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.75">
+      <c r="A26" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.75">
+      <c r="A27" s="10" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.75">
+      <c r="A28" s="10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75">
+      <c r="A29" s="10" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.75">
+      <c r="A30" s="10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.75">
+      <c r="A31" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.75">
+      <c r="A32" s="10" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75">
+      <c r="A33" s="10" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75">
+      <c r="A34" s="10" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.75">
+      <c r="A35" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="D43" t="s">
+        <v>1518</v>
       </c>
     </row>
   </sheetData>
@@ -27627,93 +28279,93 @@
   <sheetData>
     <row r="1" spans="1:16" s="28" customFormat="1">
       <c r="A1" s="28" t="s">
-        <v>1246</v>
+        <v>1221</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>1247</v>
+        <v>1222</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>1248</v>
+        <v>1223</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>1249</v>
+        <v>1224</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>1250</v>
+        <v>1225</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>1251</v>
+        <v>1226</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>1252</v>
+        <v>1227</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>1253</v>
+        <v>1228</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>1254</v>
+        <v>1229</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>1255</v>
+        <v>1230</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>1256</v>
+        <v>1231</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>1257</v>
+        <v>1232</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>1258</v>
+        <v>1233</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>1259</v>
+        <v>1234</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>1260</v>
+        <v>1235</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>1262</v>
+        <v>1237</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1263</v>
+        <v>1238</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1266</v>
+        <v>1241</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>448</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1273</v>
+        <v>1248</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>1302</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>1311</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -27724,13 +28376,13 @@
         <v>282</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1267</v>
+        <v>1242</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1274</v>
+        <v>1249</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>622</v>
@@ -27742,10 +28394,10 @@
         <v>630</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1285</v>
+        <v>1260</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1288</v>
+        <v>1263</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>297</v>
@@ -27754,141 +28406,141 @@
         <v>394</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1312</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="1" t="s">
-        <v>1264</v>
+        <v>1239</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1275</v>
+        <v>1250</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>1303</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>1313</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>1329</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>1331</v>
+        <v>1306</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1335</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="C6" s="1" t="s">
-        <v>1269</v>
+        <v>1244</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>397</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1278</v>
+        <v>1253</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1272</v>
+        <v>1247</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1269</v>
+        <v>1244</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1305</v>
+        <v>1280</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1315</v>
+        <v>1290</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1243</v>
+        <v>1218</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>1332</v>
+        <v>1307</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>1336</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="C7" s="1" t="s">
-        <v>1270</v>
+        <v>1245</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1239</v>
+        <v>1214</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1282</v>
+        <v>1257</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>289</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1270</v>
+        <v>1245</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>1306</v>
+        <v>1281</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1316</v>
+        <v>1291</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>1330</v>
+        <v>1305</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>1333</v>
+        <v>1308</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>323</v>
@@ -27896,22 +28548,22 @@
     </row>
     <row r="8" spans="1:16">
       <c r="C8" s="1" t="s">
-        <v>1271</v>
+        <v>1246</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1283</v>
+        <v>1258</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1286</v>
+        <v>1261</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1291</v>
+        <v>1266</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1307</v>
+        <v>1282</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1317</v>
+        <v>1292</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>319</v>
@@ -27919,111 +28571,111 @@
     </row>
     <row r="9" spans="1:16">
       <c r="C9" s="1" t="s">
-        <v>1272</v>
+        <v>1247</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1287</v>
+        <v>1262</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1272</v>
+        <v>1247</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1308</v>
+        <v>1283</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>1318</v>
+        <v>1293</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>1334</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="C10" s="1" t="s">
-        <v>1238</v>
+        <v>1213</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>293</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>1309</v>
+        <v>1284</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>1319</v>
+        <v>1294</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>1221</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="J11" s="1" t="s">
-        <v>1292</v>
+        <v>1267</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1310</v>
+        <v>1285</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>1320</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="J12" s="1" t="s">
-        <v>1293</v>
+        <v>1268</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>1321</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="J13" s="1" t="s">
-        <v>1294</v>
+        <v>1269</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>1322</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="J14" s="1" t="s">
-        <v>1295</v>
+        <v>1270</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1323</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="J15" s="1" t="s">
-        <v>1296</v>
+        <v>1271</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>1324</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="J16" s="1" t="s">
-        <v>1297</v>
+        <v>1272</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1325</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="17" spans="10:13">
       <c r="J17" s="1" t="s">
-        <v>1298</v>
+        <v>1273</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>1326</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="18" spans="10:13">
       <c r="J18" s="1" t="s">
-        <v>1299</v>
+        <v>1274</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>1327</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="19" spans="10:13">
       <c r="M19" s="1" t="s">
-        <v>1328</v>
+        <v>1303</v>
       </c>
     </row>
   </sheetData>
@@ -28117,7 +28769,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1396</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" ht="16.5" customHeight="1">
@@ -28190,7 +28842,7 @@
     </row>
     <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="10" t="s">
-        <v>1361</v>
+        <v>1336</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>32</v>
@@ -28199,7 +28851,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>25</v>
@@ -28207,7 +28859,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1363</v>
+        <v>1338</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
@@ -28216,7 +28868,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -28224,7 +28876,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>1364</v>
+        <v>1339</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>32</v>
@@ -28233,7 +28885,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1365</v>
+        <v>1340</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -28241,7 +28893,7 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="10" t="s">
-        <v>1366</v>
+        <v>1341</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>20</v>
@@ -28250,7 +28902,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1365</v>
+        <v>1340</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -28258,7 +28910,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="10" t="s">
-        <v>1367</v>
+        <v>1342</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>32</v>
@@ -28267,7 +28919,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1373</v>
+        <v>1348</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -28275,7 +28927,7 @@
     </row>
     <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="10" t="s">
-        <v>1368</v>
+        <v>1343</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -28284,15 +28936,15 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1373</v>
+        <v>1348</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1374</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="10" t="s">
-        <v>1369</v>
+        <v>1344</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>32</v>
@@ -28301,7 +28953,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1375</v>
+        <v>1350</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>25</v>
@@ -28309,7 +28961,7 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="10" t="s">
-        <v>1370</v>
+        <v>1345</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -28318,15 +28970,15 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1375</v>
+        <v>1350</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1376</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="10" t="s">
-        <v>1371</v>
+        <v>1346</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>32</v>
@@ -28335,7 +28987,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>25</v>
@@ -28343,7 +28995,7 @@
     </row>
     <row r="18" spans="1:5" ht="18.75">
       <c r="A18" s="10" t="s">
-        <v>1372</v>
+        <v>1347</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -28352,15 +29004,15 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1378</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="10" t="s">
-        <v>1379</v>
+        <v>1354</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>32</v>
@@ -28369,7 +29021,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>1380</v>
+        <v>1355</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>25</v>
@@ -28377,7 +29029,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="10" t="s">
-        <v>1381</v>
+        <v>1356</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -28386,15 +29038,15 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>1380</v>
+        <v>1355</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1382</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="10" t="s">
-        <v>1383</v>
+        <v>1358</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>32</v>
@@ -28403,7 +29055,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>25</v>
@@ -28411,7 +29063,7 @@
     </row>
     <row r="22" spans="1:5" ht="18.75">
       <c r="A22" s="10" t="s">
-        <v>1385</v>
+        <v>1360</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -28420,15 +29072,15 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>1382</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>1386</v>
+        <v>1361</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>32</v>
@@ -28437,7 +29089,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>1387</v>
+        <v>1362</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>25</v>
@@ -28445,7 +29097,7 @@
     </row>
     <row r="24" spans="1:5" ht="18.75">
       <c r="A24" s="10" t="s">
-        <v>1388</v>
+        <v>1363</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -28454,15 +29106,15 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>1387</v>
+        <v>1362</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>1389</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75">
       <c r="A25" s="10" t="s">
-        <v>1390</v>
+        <v>1365</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>32</v>
@@ -28471,7 +29123,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>1393</v>
+        <v>1368</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>25</v>
@@ -28479,7 +29131,7 @@
     </row>
     <row r="26" spans="1:5" ht="18.75">
       <c r="A26" s="10" t="s">
-        <v>1391</v>
+        <v>1366</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -28488,10 +29140,10 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>1393</v>
+        <v>1368</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1389</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75">
@@ -28505,7 +29157,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>25</v>
@@ -28522,7 +29174,7 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
@@ -28539,7 +29191,7 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>1163</v>
+        <v>1141</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
@@ -28547,7 +29199,7 @@
     </row>
     <row r="30" spans="1:5" ht="18.75">
       <c r="A30" s="10" t="s">
-        <v>1392</v>
+        <v>1367</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -28556,7 +29208,7 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>1163</v>
+        <v>1141</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
@@ -28564,7 +29216,7 @@
     </row>
     <row r="31" spans="1:5" ht="18.75">
       <c r="A31" s="10" t="s">
-        <v>1394</v>
+        <v>1369</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -28573,7 +29225,7 @@
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
       <c r="E31" t="s">
         <v>25</v>
@@ -28581,7 +29233,7 @@
     </row>
     <row r="32" spans="1:5" ht="18.75">
       <c r="A32" s="10" t="s">
-        <v>1395</v>
+        <v>1370</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -28590,7 +29242,7 @@
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
       <c r="E32" t="s">
         <v>25</v>
@@ -28609,8 +29261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28690,7 +29342,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1418</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" ht="16.5" customHeight="1">
@@ -28763,7 +29415,7 @@
     </row>
     <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="10" t="s">
-        <v>1361</v>
+        <v>1336</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>32</v>
@@ -28772,7 +29424,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>25</v>
@@ -28780,7 +29432,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1363</v>
+        <v>1338</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
@@ -28789,7 +29441,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -28797,7 +29449,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="10" t="s">
-        <v>1364</v>
+        <v>1339</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>32</v>
@@ -28806,7 +29458,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1365</v>
+        <v>1340</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -28814,7 +29466,7 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="10" t="s">
-        <v>1366</v>
+        <v>1341</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>20</v>
@@ -28823,7 +29475,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1365</v>
+        <v>1340</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>25</v>
@@ -28840,7 +29492,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1399</v>
+        <v>1374</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -28848,7 +29500,7 @@
     </row>
     <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="10" t="s">
-        <v>1400</v>
+        <v>1375</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -28857,15 +29509,15 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1399</v>
+        <v>1374</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1401</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="10" t="s">
-        <v>1402</v>
+        <v>1377</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>32</v>
@@ -28874,7 +29526,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1406</v>
+        <v>1381</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>25</v>
@@ -28882,7 +29534,7 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="10" t="s">
-        <v>1403</v>
+        <v>1378</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>59</v>
@@ -28891,15 +29543,15 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1406</v>
+        <v>1381</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1407</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="10" t="s">
-        <v>1404</v>
+        <v>1379</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>32</v>
@@ -28908,7 +29560,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>1408</v>
+        <v>1383</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>25</v>
@@ -28916,7 +29568,7 @@
     </row>
     <row r="18" spans="1:5" ht="18.75">
       <c r="A18" s="10" t="s">
-        <v>1405</v>
+        <v>1380</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>59</v>
@@ -28925,15 +29577,15 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1408</v>
+        <v>1383</v>
       </c>
       <c r="E18" t="s">
-        <v>1419</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="10" t="s">
-        <v>1367</v>
+        <v>1342</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>32</v>
@@ -28942,7 +29594,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>1373</v>
+        <v>1348</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>25</v>
@@ -28950,7 +29602,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="10" t="s">
-        <v>1368</v>
+        <v>1343</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -28959,15 +29611,15 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>1373</v>
+        <v>1348</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1374</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="10" t="s">
-        <v>1369</v>
+        <v>1344</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>32</v>
@@ -28976,7 +29628,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>1375</v>
+        <v>1350</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>25</v>
@@ -28984,7 +29636,7 @@
     </row>
     <row r="22" spans="1:5" ht="18.75">
       <c r="A22" s="10" t="s">
-        <v>1370</v>
+        <v>1345</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -28993,15 +29645,15 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>1375</v>
+        <v>1350</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1376</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>1371</v>
+        <v>1346</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>32</v>
@@ -29010,7 +29662,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>25</v>
@@ -29018,7 +29670,7 @@
     </row>
     <row r="24" spans="1:5" ht="18.75">
       <c r="A24" s="10" t="s">
-        <v>1372</v>
+        <v>1347</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -29027,15 +29679,15 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1378</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75">
       <c r="A25" s="10" t="s">
-        <v>1379</v>
+        <v>1354</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>32</v>
@@ -29044,7 +29696,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>1380</v>
+        <v>1355</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>25</v>
@@ -29052,7 +29704,7 @@
     </row>
     <row r="26" spans="1:5" ht="18.75">
       <c r="A26" s="10" t="s">
-        <v>1381</v>
+        <v>1356</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -29061,15 +29713,15 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>1380</v>
+        <v>1355</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1382</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75">
       <c r="A27" s="10" t="s">
-        <v>1383</v>
+        <v>1358</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>32</v>
@@ -29078,7 +29730,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>25</v>
@@ -29086,7 +29738,7 @@
     </row>
     <row r="28" spans="1:5" ht="18.75">
       <c r="A28" s="10" t="s">
-        <v>1385</v>
+        <v>1360</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -29095,15 +29747,15 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>1382</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75">
       <c r="A29" s="10" t="s">
-        <v>1386</v>
+        <v>1361</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>32</v>
@@ -29112,7 +29764,7 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>1387</v>
+        <v>1362</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>25</v>
@@ -29120,7 +29772,7 @@
     </row>
     <row r="30" spans="1:5" ht="18.75">
       <c r="A30" s="10" t="s">
-        <v>1388</v>
+        <v>1363</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -29129,15 +29781,15 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>1387</v>
+        <v>1362</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1389</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75">
       <c r="A31" s="10" t="s">
-        <v>1390</v>
+        <v>1365</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>32</v>
@@ -29146,7 +29798,7 @@
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>1393</v>
+        <v>1368</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>25</v>
@@ -29154,7 +29806,7 @@
     </row>
     <row r="32" spans="1:5" ht="18.75">
       <c r="A32" s="10" t="s">
-        <v>1391</v>
+        <v>1366</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -29163,15 +29815,15 @@
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>1393</v>
+        <v>1368</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1389</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18.75">
       <c r="A33" s="10" t="s">
-        <v>1409</v>
+        <v>1384</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>32</v>
@@ -29180,7 +29832,7 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>1413</v>
+        <v>1388</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>25</v>
@@ -29188,7 +29840,7 @@
     </row>
     <row r="34" spans="1:5" ht="18.75">
       <c r="A34" s="10" t="s">
-        <v>1410</v>
+        <v>1385</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -29197,15 +29849,15 @@
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>1413</v>
+        <v>1388</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>1415</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18.75">
       <c r="A35" s="10" t="s">
-        <v>1411</v>
+        <v>1386</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>32</v>
@@ -29214,7 +29866,7 @@
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>1414</v>
+        <v>1389</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>25</v>
@@ -29222,7 +29874,7 @@
     </row>
     <row r="36" spans="1:5" ht="18.75">
       <c r="A36" s="10" t="s">
-        <v>1412</v>
+        <v>1387</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -29231,10 +29883,10 @@
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>1414</v>
+        <v>1389</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>1415</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.75">
@@ -29248,7 +29900,7 @@
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>1416</v>
+        <v>1391</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>25</v>
@@ -29256,7 +29908,7 @@
     </row>
     <row r="38" spans="1:5" ht="18.75">
       <c r="A38" s="10" t="s">
-        <v>1417</v>
+        <v>1392</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -29265,7 +29917,7 @@
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>1416</v>
+        <v>1391</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>25</v>
@@ -29282,7 +29934,7 @@
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>1163</v>
+        <v>1141</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>25</v>
@@ -29299,7 +29951,7 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>1163</v>
+        <v>1141</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>25</v>
@@ -29307,7 +29959,7 @@
     </row>
     <row r="41" spans="1:5" ht="18.75">
       <c r="A41" s="10" t="s">
-        <v>1394</v>
+        <v>1369</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -29316,7 +29968,7 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
       <c r="E41" t="s">
         <v>25</v>
@@ -29324,7 +29976,7 @@
     </row>
     <row r="42" spans="1:5" ht="18.75">
       <c r="A42" s="10" t="s">
-        <v>1395</v>
+        <v>1370</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -29333,7 +29985,7 @@
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
       <c r="E42" t="s">
         <v>25</v>
@@ -29352,7 +30004,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29431,7 +30083,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1418</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1" ht="16.5" customHeight="1">
@@ -29451,7 +30103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -29504,7 +30156,7 @@
     </row>
     <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="10" t="s">
-        <v>1361</v>
+        <v>1336</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>32</v>
@@ -29513,7 +30165,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>25</v>
@@ -29521,7 +30173,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="10" t="s">
-        <v>1363</v>
+        <v>1338</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
@@ -29530,7 +30182,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>25</v>
@@ -29547,7 +30199,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1423</v>
+        <v>1398</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -29555,7 +30207,7 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="10" t="s">
-        <v>1400</v>
+        <v>1375</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -29564,15 +30216,15 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1423</v>
+        <v>1398</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>1401</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="10" t="s">
-        <v>1402</v>
+        <v>1377</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>32</v>
@@ -29581,7 +30233,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1424</v>
+        <v>1399</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>25</v>
@@ -29589,7 +30241,7 @@
     </row>
     <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="10" t="s">
-        <v>1422</v>
+        <v>1397</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -29598,10 +30250,10 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1424</v>
+        <v>1399</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>1407</v>
+        <v>1382</v>
       </c>
     </row>
   </sheetData>
@@ -29614,9 +30266,277 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75">
+      <c r="A7" s="10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75">
+      <c r="A8" s="10" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75">
+      <c r="A9" s="10" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75">
+      <c r="A10" s="10" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75">
+      <c r="A11" s="10" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75">
+      <c r="A12" s="10" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75">
+      <c r="A13" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75">
+      <c r="A14" s="10" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -30685,7 +31605,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>1433</v>
+        <v>1408</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
@@ -30702,7 +31622,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1433</v>
+        <v>1408</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -30756,7 +31676,7 @@
         <v>149</v>
       </c>
       <c r="E13" t="s">
-        <v>1448</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -30790,7 +31710,7 @@
         <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>1444</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -30991,7 +31911,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
@@ -31008,7 +31928,7 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
       <c r="E28" t="s">
         <v>168</v>
@@ -31025,7 +31945,7 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>1435</v>
+        <v>1410</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
@@ -31042,7 +31962,7 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>1435</v>
+        <v>1410</v>
       </c>
       <c r="E30" t="s">
         <v>168</v>
@@ -31096,7 +32016,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31276,7 +32196,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1433</v>
+        <v>1408</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -31293,7 +32213,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1433</v>
+        <v>1408</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -31301,7 +32221,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1438</v>
+        <v>1413</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -31310,7 +32230,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1437</v>
+        <v>1412</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -31327,7 +32247,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1440</v>
+        <v>1415</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -31344,7 +32264,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>1440</v>
+        <v>1415</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -31386,7 +32306,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>1442</v>
+        <v>1417</v>
       </c>
       <c r="B17" t="s">
         <v>865</v>
@@ -31412,7 +32332,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>1447</v>
+        <v>1422</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -31429,7 +32349,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>1447</v>
+        <v>1422</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -31446,7 +32366,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>1443</v>
+        <v>1418</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
@@ -31463,7 +32383,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>1443</v>
+        <v>1418</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
@@ -31662,7 +32582,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1433</v>
+        <v>1408</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -31679,7 +32599,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1433</v>
+        <v>1408</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -31687,7 +32607,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1439</v>
+        <v>1414</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -31696,7 +32616,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1441</v>
+        <v>1416</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -31713,7 +32633,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>1441</v>
+        <v>1416</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -31755,7 +32675,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1445</v>
+        <v>1420</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -31764,7 +32684,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1443</v>
+        <v>1418</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -31772,7 +32692,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>1446</v>
+        <v>1421</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -31781,7 +32701,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>1443</v>
+        <v>1418</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -31963,7 +32883,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>1434</v>
+        <v>1409</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>25</v>
@@ -31980,7 +32900,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>1434</v>
+        <v>1409</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>25</v>
@@ -31997,7 +32917,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>1449</v>
+        <v>1424</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>25</v>
@@ -32014,7 +32934,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>1449</v>
+        <v>1424</v>
       </c>
       <c r="E12" s="40" t="s">
         <v>25</v>
@@ -32034,7 +32954,7 @@
         <v>194</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>1453</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="40" customFormat="1" ht="15.75" customHeight="1">
@@ -32102,7 +33022,7 @@
         <v>204</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>1452</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="40" customFormat="1" ht="15.75" customHeight="1">
@@ -32401,7 +33321,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>1434</v>
+        <v>1409</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>25</v>
@@ -32418,7 +33338,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>1434</v>
+        <v>1409</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>25</v>
@@ -32435,7 +33355,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1450</v>
+        <v>1425</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>25</v>
@@ -32452,7 +33372,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1450</v>
+        <v>1425</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>25</v>
